--- a/Pokemon_Server/data/pkm_pokemon_evolution.xlsx
+++ b/Pokemon_Server/data/pkm_pokemon_evolution.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="24">
   <si>
     <t>pokemon_evolution_id</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>night</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -530,11 +536,11 @@
       <c r="E2">
         <v>16</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -550,11 +556,11 @@
       <c r="E3">
         <v>32</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -570,11 +576,11 @@
       <c r="E4">
         <v>16</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -590,11 +596,11 @@
       <c r="E5">
         <v>36</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -610,11 +616,11 @@
       <c r="E6">
         <v>16</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
+      <c r="S6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -630,11 +636,11 @@
       <c r="E7">
         <v>36</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -650,11 +656,11 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -670,11 +676,11 @@
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
+      <c r="S9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -690,11 +696,11 @@
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
+      <c r="S10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -710,11 +716,11 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
+      <c r="S11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -730,11 +736,11 @@
       <c r="E12">
         <v>18</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -750,11 +756,11 @@
       <c r="E13">
         <v>36</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -770,11 +776,11 @@
       <c r="E14">
         <v>20</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
+      <c r="S14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -790,11 +796,11 @@
       <c r="E15">
         <v>20</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -810,11 +816,11 @@
       <c r="E16">
         <v>22</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+      <c r="S16" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -830,11 +836,11 @@
       <c r="L17">
         <v>220</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
+      <c r="S17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -850,11 +856,11 @@
       <c r="D18">
         <v>83</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
+      <c r="S18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -870,11 +876,11 @@
       <c r="E19">
         <v>22</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -890,11 +896,11 @@
       <c r="E20">
         <v>16</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
+      <c r="S20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -910,11 +916,11 @@
       <c r="D21">
         <v>81</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
+      <c r="S21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -930,11 +936,11 @@
       <c r="E22">
         <v>16</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
+      <c r="S22" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -950,11 +956,11 @@
       <c r="D23">
         <v>81</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
+      <c r="S23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -970,11 +976,11 @@
       <c r="L24">
         <v>220</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
+      <c r="S24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -990,11 +996,11 @@
       <c r="D25">
         <v>81</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
+      <c r="S25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -1010,11 +1016,11 @@
       <c r="D26">
         <v>82</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
+      <c r="S26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -1030,11 +1036,11 @@
       <c r="L27">
         <v>220</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
+      <c r="S27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -1050,11 +1056,11 @@
       <c r="D28">
         <v>81</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
+      <c r="S28" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -1070,11 +1076,11 @@
       <c r="E29">
         <v>22</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
+      <c r="S29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -1090,11 +1096,11 @@
       <c r="E30">
         <v>21</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
+      <c r="S30" t="s">
+        <v>22</v>
+      </c>
+      <c r="T30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -1110,11 +1116,11 @@
       <c r="D31">
         <v>85</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
+      <c r="S31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -1130,11 +1136,11 @@
       <c r="E32">
         <v>24</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
+      <c r="S32" t="s">
+        <v>22</v>
+      </c>
+      <c r="T32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -1150,11 +1156,11 @@
       <c r="E33">
         <v>31</v>
       </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
+      <c r="S33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -1170,11 +1176,11 @@
       <c r="E34">
         <v>26</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
+      <c r="S34" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -1190,11 +1196,11 @@
       <c r="E35">
         <v>28</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
+      <c r="S35" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -1210,11 +1216,11 @@
       <c r="E36">
         <v>33</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
+      <c r="S36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -1230,11 +1236,11 @@
       <c r="E37">
         <v>28</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
+      <c r="S37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -1250,11 +1256,11 @@
       <c r="D38">
         <v>82</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
+      <c r="S38" t="s">
+        <v>22</v>
+      </c>
+      <c r="T38" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -1270,11 +1276,11 @@
       <c r="E39">
         <v>25</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
+      <c r="S39" t="s">
+        <v>22</v>
+      </c>
+      <c r="T39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -1290,11 +1296,11 @@
       <c r="D40">
         <v>84</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
+      <c r="S40" t="s">
+        <v>22</v>
+      </c>
+      <c r="T40" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -1310,11 +1316,11 @@
       <c r="E41">
         <v>16</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
+      <c r="S41" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -1327,11 +1333,11 @@
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
+      <c r="S42" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -1347,11 +1353,11 @@
       <c r="E43">
         <v>28</v>
       </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
+      <c r="S43" t="s">
+        <v>22</v>
+      </c>
+      <c r="T43" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -1364,11 +1370,11 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
+      <c r="S44" t="s">
+        <v>22</v>
+      </c>
+      <c r="T44" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -1384,11 +1390,11 @@
       <c r="E45">
         <v>21</v>
       </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
+      <c r="S45" t="s">
+        <v>22</v>
+      </c>
+      <c r="T45" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -1404,11 +1410,11 @@
       <c r="D46">
         <v>85</v>
       </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
+      <c r="S46" t="s">
+        <v>22</v>
+      </c>
+      <c r="T46" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -1424,11 +1430,11 @@
       <c r="E47">
         <v>30</v>
       </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
+      <c r="S47" t="s">
+        <v>22</v>
+      </c>
+      <c r="T47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -1444,11 +1450,11 @@
       <c r="E48">
         <v>25</v>
       </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
+      <c r="S48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -1461,11 +1467,11 @@
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
+      <c r="S49" t="s">
+        <v>22</v>
+      </c>
+      <c r="T49" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -1481,11 +1487,11 @@
       <c r="E50">
         <v>40</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
+      <c r="S50" t="s">
+        <v>22</v>
+      </c>
+      <c r="T50" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -1501,11 +1507,11 @@
       <c r="E51">
         <v>37</v>
       </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
+      <c r="S51" t="s">
+        <v>22</v>
+      </c>
+      <c r="T51" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -1521,11 +1527,11 @@
       <c r="E52">
         <v>30</v>
       </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
+      <c r="S52" t="s">
+        <v>22</v>
+      </c>
+      <c r="T52" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -1541,11 +1547,11 @@
       <c r="E53">
         <v>31</v>
       </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
+      <c r="S53" t="s">
+        <v>22</v>
+      </c>
+      <c r="T53" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -1561,11 +1567,11 @@
       <c r="E54">
         <v>34</v>
       </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
+      <c r="S54" t="s">
+        <v>22</v>
+      </c>
+      <c r="T54" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -1581,11 +1587,11 @@
       <c r="E55">
         <v>38</v>
       </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
+      <c r="S55" t="s">
+        <v>22</v>
+      </c>
+      <c r="T55" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -1601,11 +1607,11 @@
       <c r="D56">
         <v>84</v>
       </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
+      <c r="S56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T56" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -1621,11 +1627,11 @@
       <c r="E57">
         <v>25</v>
       </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
+      <c r="S57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T57" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -1638,11 +1644,11 @@
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
+      <c r="S58" t="s">
+        <v>22</v>
+      </c>
+      <c r="T58" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -1658,11 +1664,11 @@
       <c r="E59">
         <v>26</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
+      <c r="S59" t="s">
+        <v>22</v>
+      </c>
+      <c r="T59" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -1678,11 +1684,11 @@
       <c r="E60">
         <v>28</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
+      <c r="S60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T60" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -1698,11 +1704,11 @@
       <c r="E61">
         <v>30</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
+      <c r="S61" t="s">
+        <v>22</v>
+      </c>
+      <c r="T61" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -1718,11 +1724,11 @@
       <c r="D62">
         <v>85</v>
       </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
+      <c r="S62" t="s">
+        <v>22</v>
+      </c>
+      <c r="T62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -1738,11 +1744,11 @@
       <c r="E63">
         <v>28</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
+      <c r="S63" t="s">
+        <v>22</v>
+      </c>
+      <c r="T63" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -1761,11 +1767,11 @@
       <c r="O64">
         <v>1</v>
       </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
+      <c r="S64" t="s">
+        <v>22</v>
+      </c>
+      <c r="T64" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -1784,11 +1790,11 @@
       <c r="O65">
         <v>-1</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
+      <c r="S65" t="s">
+        <v>22</v>
+      </c>
+      <c r="T65" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -1804,11 +1810,11 @@
       <c r="E66">
         <v>35</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
+      <c r="S66" t="s">
+        <v>22</v>
+      </c>
+      <c r="T66" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -1824,11 +1830,11 @@
       <c r="E67">
         <v>42</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
+      <c r="S67" t="s">
+        <v>22</v>
+      </c>
+      <c r="T67" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -1847,11 +1853,11 @@
       <c r="I68" t="s">
         <v>20</v>
       </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
+      <c r="S68" t="s">
+        <v>22</v>
+      </c>
+      <c r="T68" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -1867,11 +1873,11 @@
       <c r="E69">
         <v>32</v>
       </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
+      <c r="S69" t="s">
+        <v>22</v>
+      </c>
+      <c r="T69" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -1887,11 +1893,11 @@
       <c r="E70">
         <v>33</v>
       </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
+      <c r="S70" t="s">
+        <v>22</v>
+      </c>
+      <c r="T70" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -1907,11 +1913,11 @@
       <c r="D71">
         <v>84</v>
       </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
+      <c r="S71" t="s">
+        <v>22</v>
+      </c>
+      <c r="T71" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -1927,11 +1933,11 @@
       <c r="J72">
         <v>102</v>
       </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
+      <c r="S72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T72" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -1947,11 +1953,11 @@
       <c r="E73">
         <v>30</v>
       </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
+      <c r="S73" t="s">
+        <v>22</v>
+      </c>
+      <c r="T73" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -1967,11 +1973,11 @@
       <c r="E74">
         <v>30</v>
       </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
+      <c r="S74" t="s">
+        <v>22</v>
+      </c>
+      <c r="T74" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -1987,11 +1993,11 @@
       <c r="E75">
         <v>30</v>
       </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
+      <c r="S75" t="s">
+        <v>22</v>
+      </c>
+      <c r="T75" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -2007,11 +2013,11 @@
       <c r="E76">
         <v>20</v>
       </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
+      <c r="S76" t="s">
+        <v>22</v>
+      </c>
+      <c r="T76" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -2027,11 +2033,11 @@
       <c r="D77">
         <v>84</v>
       </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
+      <c r="S77" t="s">
+        <v>22</v>
+      </c>
+      <c r="T77" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -2047,11 +2053,11 @@
       <c r="D78">
         <v>83</v>
       </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
+      <c r="S78" t="s">
+        <v>22</v>
+      </c>
+      <c r="T78" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -2067,11 +2073,11 @@
       <c r="D79">
         <v>82</v>
       </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
+      <c r="S79" t="s">
+        <v>22</v>
+      </c>
+      <c r="T79" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -2087,11 +2093,11 @@
       <c r="E80">
         <v>40</v>
       </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
+      <c r="S80" t="s">
+        <v>22</v>
+      </c>
+      <c r="T80" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -2107,11 +2113,11 @@
       <c r="E81">
         <v>40</v>
       </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
+      <c r="S81" t="s">
+        <v>22</v>
+      </c>
+      <c r="T81" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -2127,11 +2133,11 @@
       <c r="L82">
         <v>220</v>
       </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
+      <c r="S82" t="s">
+        <v>22</v>
+      </c>
+      <c r="T82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -2147,11 +2153,11 @@
       <c r="E83">
         <v>30</v>
       </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
+      <c r="S83" t="s">
+        <v>22</v>
+      </c>
+      <c r="T83" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -2167,11 +2173,11 @@
       <c r="E84">
         <v>55</v>
       </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
+      <c r="S84" t="s">
+        <v>22</v>
+      </c>
+      <c r="T84" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -2187,11 +2193,11 @@
       <c r="E85">
         <v>16</v>
       </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
+      <c r="S85" t="s">
+        <v>22</v>
+      </c>
+      <c r="T85" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -2207,11 +2213,11 @@
       <c r="E86">
         <v>32</v>
       </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
+      <c r="S86" t="s">
+        <v>22</v>
+      </c>
+      <c r="T86" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -2227,11 +2233,11 @@
       <c r="E87">
         <v>14</v>
       </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
+      <c r="S87" t="s">
+        <v>22</v>
+      </c>
+      <c r="T87" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -2247,11 +2253,11 @@
       <c r="E88">
         <v>36</v>
       </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
+      <c r="S88" t="s">
+        <v>22</v>
+      </c>
+      <c r="T88" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -2267,11 +2273,11 @@
       <c r="E89">
         <v>18</v>
       </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
+      <c r="S89" t="s">
+        <v>22</v>
+      </c>
+      <c r="T89" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -2287,11 +2293,11 @@
       <c r="E90">
         <v>30</v>
       </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
+      <c r="S90" t="s">
+        <v>22</v>
+      </c>
+      <c r="T90" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -2307,11 +2313,11 @@
       <c r="E91">
         <v>15</v>
       </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <v>0</v>
+      <c r="S91" t="s">
+        <v>22</v>
+      </c>
+      <c r="T91" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -2327,11 +2333,11 @@
       <c r="E92">
         <v>20</v>
       </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
+      <c r="S92" t="s">
+        <v>22</v>
+      </c>
+      <c r="T92" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -2347,11 +2353,11 @@
       <c r="E93">
         <v>18</v>
       </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <v>0</v>
+      <c r="S93" t="s">
+        <v>22</v>
+      </c>
+      <c r="T93" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -2367,11 +2373,11 @@
       <c r="E94">
         <v>22</v>
       </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <v>0</v>
+      <c r="S94" t="s">
+        <v>22</v>
+      </c>
+      <c r="T94" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -2387,11 +2393,11 @@
       <c r="L95">
         <v>220</v>
       </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
+      <c r="S95" t="s">
+        <v>22</v>
+      </c>
+      <c r="T95" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -2407,11 +2413,11 @@
       <c r="E96">
         <v>27</v>
       </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <v>0</v>
+      <c r="S96" t="s">
+        <v>22</v>
+      </c>
+      <c r="T96" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -2427,11 +2433,11 @@
       <c r="L97">
         <v>220</v>
       </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>0</v>
+      <c r="S97" t="s">
+        <v>22</v>
+      </c>
+      <c r="T97" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -2447,11 +2453,11 @@
       <c r="E98">
         <v>25</v>
       </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <v>0</v>
+      <c r="S98" t="s">
+        <v>22</v>
+      </c>
+      <c r="T98" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -2467,11 +2473,11 @@
       <c r="E99">
         <v>15</v>
       </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
+      <c r="S99" t="s">
+        <v>22</v>
+      </c>
+      <c r="T99" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -2487,11 +2493,11 @@
       <c r="E100">
         <v>30</v>
       </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
+      <c r="S100" t="s">
+        <v>22</v>
+      </c>
+      <c r="T100" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -2507,11 +2513,11 @@
       <c r="D101">
         <v>80</v>
       </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
-      <c r="T101">
-        <v>0</v>
+      <c r="S101" t="s">
+        <v>22</v>
+      </c>
+      <c r="T101" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -2527,11 +2533,11 @@
       <c r="L102">
         <v>220</v>
       </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
-      <c r="T102">
-        <v>0</v>
+      <c r="S102" t="s">
+        <v>22</v>
+      </c>
+      <c r="T102" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -2547,11 +2553,11 @@
       <c r="E103">
         <v>18</v>
       </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-      <c r="T103">
-        <v>0</v>
+      <c r="S103" t="s">
+        <v>22</v>
+      </c>
+      <c r="T103" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -2567,11 +2573,11 @@
       <c r="J104">
         <v>102</v>
       </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
-      <c r="T104">
-        <v>0</v>
+      <c r="S104" t="s">
+        <v>22</v>
+      </c>
+      <c r="T104" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -2587,11 +2593,11 @@
       <c r="H105">
         <v>198</v>
       </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
-      <c r="T105">
-        <v>0</v>
+      <c r="S105" t="s">
+        <v>22</v>
+      </c>
+      <c r="T105" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -2607,11 +2613,11 @@
       <c r="E106">
         <v>18</v>
       </c>
-      <c r="S106">
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <v>0</v>
+      <c r="S106" t="s">
+        <v>22</v>
+      </c>
+      <c r="T106" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -2627,11 +2633,11 @@
       <c r="E107">
         <v>27</v>
       </c>
-      <c r="S107">
-        <v>0</v>
-      </c>
-      <c r="T107">
-        <v>0</v>
+      <c r="S107" t="s">
+        <v>22</v>
+      </c>
+      <c r="T107" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -2647,11 +2653,11 @@
       <c r="D108">
         <v>80</v>
       </c>
-      <c r="S108">
-        <v>0</v>
-      </c>
-      <c r="T108">
-        <v>0</v>
+      <c r="S108" t="s">
+        <v>22</v>
+      </c>
+      <c r="T108" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -2667,11 +2673,11 @@
       <c r="E109">
         <v>20</v>
       </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <v>0</v>
+      <c r="S109" t="s">
+        <v>22</v>
+      </c>
+      <c r="T109" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -2690,11 +2696,11 @@
       <c r="L110">
         <v>220</v>
       </c>
-      <c r="S110">
-        <v>0</v>
-      </c>
-      <c r="T110">
-        <v>0</v>
+      <c r="S110" t="s">
+        <v>22</v>
+      </c>
+      <c r="T110" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -2713,11 +2719,11 @@
       <c r="L111">
         <v>220</v>
       </c>
-      <c r="S111">
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <v>0</v>
+      <c r="S111" t="s">
+        <v>22</v>
+      </c>
+      <c r="T111" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -2733,11 +2739,11 @@
       <c r="H112">
         <v>198</v>
       </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <v>0</v>
+      <c r="S112" t="s">
+        <v>22</v>
+      </c>
+      <c r="T112" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -2753,11 +2759,11 @@
       <c r="E113">
         <v>15</v>
       </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
-      <c r="T113">
-        <v>0</v>
+      <c r="S113" t="s">
+        <v>22</v>
+      </c>
+      <c r="T113" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -2773,11 +2779,11 @@
       <c r="E114">
         <v>31</v>
       </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <v>0</v>
+      <c r="S114" t="s">
+        <v>22</v>
+      </c>
+      <c r="T114" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -2793,11 +2799,11 @@
       <c r="H115">
         <v>210</v>
       </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <v>0</v>
+      <c r="S115" t="s">
+        <v>22</v>
+      </c>
+      <c r="T115" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -2813,11 +2819,11 @@
       <c r="E116">
         <v>23</v>
       </c>
-      <c r="S116">
-        <v>0</v>
-      </c>
-      <c r="T116">
-        <v>0</v>
+      <c r="S116" t="s">
+        <v>22</v>
+      </c>
+      <c r="T116" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -2833,11 +2839,11 @@
       <c r="H117">
         <v>210</v>
       </c>
-      <c r="S117">
-        <v>0</v>
-      </c>
-      <c r="T117">
-        <v>0</v>
+      <c r="S117" t="s">
+        <v>22</v>
+      </c>
+      <c r="T117" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -2853,11 +2859,11 @@
       <c r="E118">
         <v>30</v>
       </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-      <c r="T118">
-        <v>0</v>
+      <c r="S118" t="s">
+        <v>22</v>
+      </c>
+      <c r="T118" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -2873,11 +2879,11 @@
       <c r="E119">
         <v>38</v>
       </c>
-      <c r="S119">
-        <v>0</v>
-      </c>
-      <c r="T119">
-        <v>0</v>
+      <c r="S119" t="s">
+        <v>22</v>
+      </c>
+      <c r="T119" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -2893,11 +2899,11 @@
       <c r="E120">
         <v>33</v>
       </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-      <c r="T120">
-        <v>0</v>
+      <c r="S120" t="s">
+        <v>22</v>
+      </c>
+      <c r="T120" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -2913,11 +2919,11 @@
       <c r="E121">
         <v>25</v>
       </c>
-      <c r="S121">
-        <v>0</v>
-      </c>
-      <c r="T121">
-        <v>0</v>
+      <c r="S121" t="s">
+        <v>22</v>
+      </c>
+      <c r="T121" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -2933,11 +2939,11 @@
       <c r="P122">
         <v>223</v>
       </c>
-      <c r="S122">
-        <v>0</v>
-      </c>
-      <c r="T122">
-        <v>0</v>
+      <c r="S122" t="s">
+        <v>22</v>
+      </c>
+      <c r="T122" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -2953,11 +2959,11 @@
       <c r="E123">
         <v>24</v>
       </c>
-      <c r="S123">
-        <v>0</v>
-      </c>
-      <c r="T123">
-        <v>0</v>
+      <c r="S123" t="s">
+        <v>22</v>
+      </c>
+      <c r="T123" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -2973,11 +2979,11 @@
       <c r="H124">
         <v>212</v>
       </c>
-      <c r="S124">
-        <v>0</v>
-      </c>
-      <c r="T124">
-        <v>0</v>
+      <c r="S124" t="s">
+        <v>22</v>
+      </c>
+      <c r="T124" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
@@ -2993,11 +2999,11 @@
       <c r="E125">
         <v>25</v>
       </c>
-      <c r="S125">
-        <v>0</v>
-      </c>
-      <c r="T125">
-        <v>0</v>
+      <c r="S125" t="s">
+        <v>22</v>
+      </c>
+      <c r="T125" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -3013,11 +3019,11 @@
       <c r="H126">
         <v>229</v>
       </c>
-      <c r="S126">
-        <v>0</v>
-      </c>
-      <c r="T126">
-        <v>0</v>
+      <c r="S126" t="s">
+        <v>22</v>
+      </c>
+      <c r="T126" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -3036,11 +3042,11 @@
       <c r="O127">
         <v>0</v>
       </c>
-      <c r="S127">
-        <v>0</v>
-      </c>
-      <c r="T127">
-        <v>0</v>
+      <c r="S127" t="s">
+        <v>22</v>
+      </c>
+      <c r="T127" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -3056,11 +3062,11 @@
       <c r="L128">
         <v>220</v>
       </c>
-      <c r="S128">
-        <v>0</v>
-      </c>
-      <c r="T128">
-        <v>0</v>
+      <c r="S128" t="s">
+        <v>22</v>
+      </c>
+      <c r="T128" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
@@ -3076,11 +3082,11 @@
       <c r="E129">
         <v>30</v>
       </c>
-      <c r="S129">
-        <v>0</v>
-      </c>
-      <c r="T129">
-        <v>0</v>
+      <c r="S129" t="s">
+        <v>22</v>
+      </c>
+      <c r="T129" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
@@ -3096,11 +3102,11 @@
       <c r="E130">
         <v>55</v>
       </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
-      <c r="T130">
-        <v>0</v>
+      <c r="S130" t="s">
+        <v>22</v>
+      </c>
+      <c r="T130" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
@@ -3116,11 +3122,11 @@
       <c r="E131">
         <v>16</v>
       </c>
-      <c r="S131">
-        <v>0</v>
-      </c>
-      <c r="T131">
-        <v>0</v>
+      <c r="S131" t="s">
+        <v>22</v>
+      </c>
+      <c r="T131" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
@@ -3136,11 +3142,11 @@
       <c r="E132">
         <v>36</v>
       </c>
-      <c r="S132">
-        <v>0</v>
-      </c>
-      <c r="T132">
-        <v>0</v>
+      <c r="S132" t="s">
+        <v>22</v>
+      </c>
+      <c r="T132" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
@@ -3156,11 +3162,11 @@
       <c r="E133">
         <v>16</v>
       </c>
-      <c r="S133">
-        <v>0</v>
-      </c>
-      <c r="T133">
-        <v>0</v>
+      <c r="S133" t="s">
+        <v>22</v>
+      </c>
+      <c r="T133" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
@@ -3176,11 +3182,11 @@
       <c r="E134">
         <v>36</v>
       </c>
-      <c r="S134">
-        <v>0</v>
-      </c>
-      <c r="T134">
-        <v>0</v>
+      <c r="S134" t="s">
+        <v>22</v>
+      </c>
+      <c r="T134" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
@@ -3196,11 +3202,11 @@
       <c r="E135">
         <v>16</v>
       </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
-      <c r="T135">
-        <v>0</v>
+      <c r="S135" t="s">
+        <v>22</v>
+      </c>
+      <c r="T135" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
@@ -3216,11 +3222,11 @@
       <c r="E136">
         <v>36</v>
       </c>
-      <c r="S136">
-        <v>0</v>
-      </c>
-      <c r="T136">
-        <v>0</v>
+      <c r="S136" t="s">
+        <v>22</v>
+      </c>
+      <c r="T136" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
@@ -3236,11 +3242,11 @@
       <c r="E137">
         <v>18</v>
       </c>
-      <c r="S137">
-        <v>0</v>
-      </c>
-      <c r="T137">
-        <v>0</v>
+      <c r="S137" t="s">
+        <v>22</v>
+      </c>
+      <c r="T137" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
@@ -3256,11 +3262,11 @@
       <c r="E138">
         <v>20</v>
       </c>
-      <c r="S138">
-        <v>0</v>
-      </c>
-      <c r="T138">
-        <v>0</v>
+      <c r="S138" t="s">
+        <v>22</v>
+      </c>
+      <c r="T138" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
@@ -3276,11 +3282,11 @@
       <c r="E139">
         <v>7</v>
       </c>
-      <c r="S139">
-        <v>0</v>
-      </c>
-      <c r="T139">
-        <v>0</v>
+      <c r="S139" t="s">
+        <v>22</v>
+      </c>
+      <c r="T139" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
@@ -3296,11 +3302,11 @@
       <c r="E140">
         <v>10</v>
       </c>
-      <c r="S140">
-        <v>0</v>
-      </c>
-      <c r="T140">
-        <v>0</v>
+      <c r="S140" t="s">
+        <v>22</v>
+      </c>
+      <c r="T140" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
@@ -3316,11 +3322,11 @@
       <c r="E141">
         <v>7</v>
       </c>
-      <c r="S141">
-        <v>0</v>
-      </c>
-      <c r="T141">
-        <v>0</v>
+      <c r="S141" t="s">
+        <v>22</v>
+      </c>
+      <c r="T141" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -3336,11 +3342,11 @@
       <c r="E142">
         <v>10</v>
       </c>
-      <c r="S142">
-        <v>0</v>
-      </c>
-      <c r="T142">
-        <v>0</v>
+      <c r="S142" t="s">
+        <v>22</v>
+      </c>
+      <c r="T142" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
@@ -3356,11 +3362,11 @@
       <c r="E143">
         <v>14</v>
       </c>
-      <c r="S143">
-        <v>0</v>
-      </c>
-      <c r="T143">
-        <v>0</v>
+      <c r="S143" t="s">
+        <v>22</v>
+      </c>
+      <c r="T143" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
@@ -3376,11 +3382,11 @@
       <c r="D144">
         <v>84</v>
       </c>
-      <c r="S144">
-        <v>0</v>
-      </c>
-      <c r="T144">
-        <v>0</v>
+      <c r="S144" t="s">
+        <v>22</v>
+      </c>
+      <c r="T144" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
@@ -3396,11 +3402,11 @@
       <c r="E145">
         <v>14</v>
       </c>
-      <c r="S145">
-        <v>0</v>
-      </c>
-      <c r="T145">
-        <v>0</v>
+      <c r="S145" t="s">
+        <v>22</v>
+      </c>
+      <c r="T145" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
@@ -3416,11 +3422,11 @@
       <c r="D146">
         <v>85</v>
       </c>
-      <c r="S146">
-        <v>0</v>
-      </c>
-      <c r="T146">
-        <v>0</v>
+      <c r="S146" t="s">
+        <v>22</v>
+      </c>
+      <c r="T146" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
@@ -3436,11 +3442,11 @@
       <c r="E147">
         <v>22</v>
       </c>
-      <c r="S147">
-        <v>0</v>
-      </c>
-      <c r="T147">
-        <v>0</v>
+      <c r="S147" t="s">
+        <v>22</v>
+      </c>
+      <c r="T147" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
@@ -3456,11 +3462,11 @@
       <c r="E148">
         <v>25</v>
       </c>
-      <c r="S148">
-        <v>0</v>
-      </c>
-      <c r="T148">
-        <v>0</v>
+      <c r="S148" t="s">
+        <v>22</v>
+      </c>
+      <c r="T148" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
@@ -3476,11 +3482,11 @@
       <c r="E149">
         <v>20</v>
       </c>
-      <c r="S149">
-        <v>0</v>
-      </c>
-      <c r="T149">
-        <v>0</v>
+      <c r="S149" t="s">
+        <v>22</v>
+      </c>
+      <c r="T149" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
@@ -3496,11 +3502,11 @@
       <c r="E150">
         <v>30</v>
       </c>
-      <c r="S150">
-        <v>0</v>
-      </c>
-      <c r="T150">
-        <v>0</v>
+      <c r="S150" t="s">
+        <v>22</v>
+      </c>
+      <c r="T150" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
@@ -3516,11 +3522,11 @@
       <c r="E151">
         <v>22</v>
       </c>
-      <c r="S151">
-        <v>0</v>
-      </c>
-      <c r="T151">
-        <v>0</v>
+      <c r="S151" t="s">
+        <v>22</v>
+      </c>
+      <c r="T151" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
@@ -3536,11 +3542,11 @@
       <c r="E152">
         <v>23</v>
       </c>
-      <c r="S152">
-        <v>0</v>
-      </c>
-      <c r="T152">
-        <v>0</v>
+      <c r="S152" t="s">
+        <v>22</v>
+      </c>
+      <c r="T152" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
@@ -3556,11 +3562,11 @@
       <c r="E153">
         <v>18</v>
       </c>
-      <c r="S153">
-        <v>0</v>
-      </c>
-      <c r="T153">
-        <v>0</v>
+      <c r="S153" t="s">
+        <v>22</v>
+      </c>
+      <c r="T153" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
@@ -3576,11 +3582,11 @@
       <c r="E154">
         <v>36</v>
       </c>
-      <c r="S154">
-        <v>0</v>
-      </c>
-      <c r="T154">
-        <v>0</v>
+      <c r="S154" t="s">
+        <v>22</v>
+      </c>
+      <c r="T154" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
@@ -3596,11 +3602,11 @@
       <c r="E155">
         <v>20</v>
       </c>
-      <c r="S155">
-        <v>0</v>
-      </c>
-      <c r="T155">
-        <v>0</v>
+      <c r="S155" t="s">
+        <v>22</v>
+      </c>
+      <c r="T155" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
@@ -3613,11 +3619,11 @@
       <c r="C156">
         <v>4</v>
       </c>
-      <c r="S156">
-        <v>0</v>
-      </c>
-      <c r="T156">
-        <v>0</v>
+      <c r="S156" t="s">
+        <v>22</v>
+      </c>
+      <c r="T156" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
@@ -3633,11 +3639,11 @@
       <c r="E157">
         <v>20</v>
       </c>
-      <c r="S157">
-        <v>0</v>
-      </c>
-      <c r="T157">
-        <v>0</v>
+      <c r="S157" t="s">
+        <v>22</v>
+      </c>
+      <c r="T157" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
@@ -3653,11 +3659,11 @@
       <c r="E158">
         <v>40</v>
       </c>
-      <c r="S158">
-        <v>0</v>
-      </c>
-      <c r="T158">
-        <v>0</v>
+      <c r="S158" t="s">
+        <v>22</v>
+      </c>
+      <c r="T158" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
@@ -3673,11 +3679,11 @@
       <c r="E159">
         <v>24</v>
       </c>
-      <c r="S159">
-        <v>0</v>
-      </c>
-      <c r="T159">
-        <v>0</v>
+      <c r="S159" t="s">
+        <v>22</v>
+      </c>
+      <c r="T159" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
@@ -3693,11 +3699,11 @@
       <c r="D160">
         <v>81</v>
       </c>
-      <c r="S160">
-        <v>0</v>
-      </c>
-      <c r="T160">
-        <v>0</v>
+      <c r="S160" t="s">
+        <v>22</v>
+      </c>
+      <c r="T160" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
@@ -3713,11 +3719,11 @@
       <c r="E161">
         <v>32</v>
       </c>
-      <c r="S161">
-        <v>0</v>
-      </c>
-      <c r="T161">
-        <v>0</v>
+      <c r="S161" t="s">
+        <v>22</v>
+      </c>
+      <c r="T161" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
@@ -3733,11 +3739,11 @@
       <c r="E162">
         <v>42</v>
       </c>
-      <c r="S162">
-        <v>0</v>
-      </c>
-      <c r="T162">
-        <v>0</v>
+      <c r="S162" t="s">
+        <v>22</v>
+      </c>
+      <c r="T162" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
@@ -3753,11 +3759,11 @@
       <c r="E163">
         <v>37</v>
       </c>
-      <c r="S163">
-        <v>0</v>
-      </c>
-      <c r="T163">
-        <v>0</v>
+      <c r="S163" t="s">
+        <v>22</v>
+      </c>
+      <c r="T163" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
@@ -3773,11 +3779,11 @@
       <c r="E164">
         <v>26</v>
       </c>
-      <c r="S164">
-        <v>0</v>
-      </c>
-      <c r="T164">
-        <v>0</v>
+      <c r="S164" t="s">
+        <v>22</v>
+      </c>
+      <c r="T164" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
@@ -3796,11 +3802,11 @@
       <c r="L165">
         <v>220</v>
       </c>
-      <c r="S165">
-        <v>0</v>
-      </c>
-      <c r="T165">
-        <v>0</v>
+      <c r="S165" t="s">
+        <v>22</v>
+      </c>
+      <c r="T165" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
@@ -3816,11 +3822,11 @@
       <c r="E166">
         <v>26</v>
       </c>
-      <c r="S166">
-        <v>0</v>
-      </c>
-      <c r="T166">
-        <v>0</v>
+      <c r="S166" t="s">
+        <v>22</v>
+      </c>
+      <c r="T166" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
@@ -3836,11 +3842,11 @@
       <c r="E167">
         <v>30</v>
       </c>
-      <c r="S167">
-        <v>0</v>
-      </c>
-      <c r="T167">
-        <v>0</v>
+      <c r="S167" t="s">
+        <v>22</v>
+      </c>
+      <c r="T167" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
@@ -3856,11 +3862,11 @@
       <c r="E168">
         <v>40</v>
       </c>
-      <c r="S168">
-        <v>0</v>
-      </c>
-      <c r="T168">
-        <v>0</v>
+      <c r="S168" t="s">
+        <v>22</v>
+      </c>
+      <c r="T168" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
@@ -3876,11 +3882,11 @@
       <c r="E169">
         <v>33</v>
       </c>
-      <c r="S169">
-        <v>0</v>
-      </c>
-      <c r="T169">
-        <v>0</v>
+      <c r="S169" t="s">
+        <v>22</v>
+      </c>
+      <c r="T169" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
@@ -3896,11 +3902,11 @@
       <c r="E170">
         <v>32</v>
       </c>
-      <c r="S170">
-        <v>0</v>
-      </c>
-      <c r="T170">
-        <v>0</v>
+      <c r="S170" t="s">
+        <v>22</v>
+      </c>
+      <c r="T170" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
@@ -3916,11 +3922,11 @@
       <c r="E171">
         <v>35</v>
       </c>
-      <c r="S171">
-        <v>0</v>
-      </c>
-      <c r="T171">
-        <v>0</v>
+      <c r="S171" t="s">
+        <v>22</v>
+      </c>
+      <c r="T171" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
@@ -3936,11 +3942,11 @@
       <c r="E172">
         <v>45</v>
       </c>
-      <c r="S172">
-        <v>0</v>
-      </c>
-      <c r="T172">
-        <v>0</v>
+      <c r="S172" t="s">
+        <v>22</v>
+      </c>
+      <c r="T172" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
@@ -3956,11 +3962,11 @@
       <c r="E173">
         <v>32</v>
       </c>
-      <c r="S173">
-        <v>0</v>
-      </c>
-      <c r="T173">
-        <v>0</v>
+      <c r="S173" t="s">
+        <v>22</v>
+      </c>
+      <c r="T173" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
@@ -3976,11 +3982,11 @@
       <c r="E174">
         <v>35</v>
       </c>
-      <c r="S174">
-        <v>0</v>
-      </c>
-      <c r="T174">
-        <v>0</v>
+      <c r="S174" t="s">
+        <v>22</v>
+      </c>
+      <c r="T174" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
@@ -3996,11 +4002,11 @@
       <c r="E175">
         <v>30</v>
       </c>
-      <c r="S175">
-        <v>0</v>
-      </c>
-      <c r="T175">
-        <v>0</v>
+      <c r="S175" t="s">
+        <v>22</v>
+      </c>
+      <c r="T175" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
@@ -4016,11 +4022,11 @@
       <c r="E176">
         <v>30</v>
       </c>
-      <c r="S176">
-        <v>0</v>
-      </c>
-      <c r="T176">
-        <v>0</v>
+      <c r="S176" t="s">
+        <v>22</v>
+      </c>
+      <c r="T176" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
@@ -4036,11 +4042,11 @@
       <c r="E177">
         <v>36</v>
       </c>
-      <c r="S177">
-        <v>0</v>
-      </c>
-      <c r="T177">
-        <v>0</v>
+      <c r="S177" t="s">
+        <v>22</v>
+      </c>
+      <c r="T177" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
@@ -4056,11 +4062,11 @@
       <c r="E178">
         <v>40</v>
       </c>
-      <c r="S178">
-        <v>0</v>
-      </c>
-      <c r="T178">
-        <v>0</v>
+      <c r="S178" t="s">
+        <v>22</v>
+      </c>
+      <c r="T178" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
@@ -4076,11 +4082,11 @@
       <c r="E179">
         <v>40</v>
       </c>
-      <c r="S179">
-        <v>0</v>
-      </c>
-      <c r="T179">
-        <v>0</v>
+      <c r="S179" t="s">
+        <v>22</v>
+      </c>
+      <c r="T179" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
@@ -4096,11 +4102,11 @@
       <c r="M180">
         <v>171</v>
       </c>
-      <c r="S180">
-        <v>0</v>
-      </c>
-      <c r="T180">
-        <v>0</v>
+      <c r="S180" t="s">
+        <v>22</v>
+      </c>
+      <c r="T180" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
@@ -4116,11 +4122,11 @@
       <c r="E181">
         <v>37</v>
       </c>
-      <c r="S181">
-        <v>0</v>
-      </c>
-      <c r="T181">
-        <v>0</v>
+      <c r="S181" t="s">
+        <v>22</v>
+      </c>
+      <c r="T181" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
@@ -4136,11 +4142,11 @@
       <c r="E182">
         <v>37</v>
       </c>
-      <c r="S182">
-        <v>0</v>
-      </c>
-      <c r="T182">
-        <v>0</v>
+      <c r="S182" t="s">
+        <v>22</v>
+      </c>
+      <c r="T182" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
@@ -4159,11 +4165,11 @@
       <c r="L183">
         <v>220</v>
       </c>
-      <c r="S183">
-        <v>0</v>
-      </c>
-      <c r="T183">
-        <v>0</v>
+      <c r="S183" t="s">
+        <v>22</v>
+      </c>
+      <c r="T183" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
@@ -4179,11 +4185,11 @@
       <c r="E184">
         <v>42</v>
       </c>
-      <c r="S184">
-        <v>0</v>
-      </c>
-      <c r="T184">
-        <v>0</v>
+      <c r="S184" t="s">
+        <v>22</v>
+      </c>
+      <c r="T184" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
@@ -4199,11 +4205,11 @@
       <c r="E185">
         <v>32</v>
       </c>
-      <c r="S185">
-        <v>0</v>
-      </c>
-      <c r="T185">
-        <v>0</v>
+      <c r="S185" t="s">
+        <v>22</v>
+      </c>
+      <c r="T185" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
@@ -4219,11 +4225,11 @@
       <c r="E186">
         <v>44</v>
       </c>
-      <c r="S186">
-        <v>0</v>
-      </c>
-      <c r="T186">
-        <v>0</v>
+      <c r="S186" t="s">
+        <v>22</v>
+      </c>
+      <c r="T186" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
@@ -4239,11 +4245,11 @@
       <c r="H187">
         <v>203</v>
       </c>
-      <c r="S187">
-        <v>0</v>
-      </c>
-      <c r="T187">
-        <v>0</v>
+      <c r="S187" t="s">
+        <v>22</v>
+      </c>
+      <c r="T187" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
@@ -4259,11 +4265,11 @@
       <c r="H188">
         <v>204</v>
       </c>
-      <c r="S188">
-        <v>0</v>
-      </c>
-      <c r="T188">
-        <v>0</v>
+      <c r="S188" t="s">
+        <v>22</v>
+      </c>
+      <c r="T188" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
@@ -4279,11 +4285,11 @@
       <c r="E189">
         <v>30</v>
       </c>
-      <c r="S189">
-        <v>0</v>
-      </c>
-      <c r="T189">
-        <v>0</v>
+      <c r="S189" t="s">
+        <v>22</v>
+      </c>
+      <c r="T189" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
@@ -4299,11 +4305,11 @@
       <c r="E190">
         <v>50</v>
       </c>
-      <c r="S190">
-        <v>0</v>
-      </c>
-      <c r="T190">
-        <v>0</v>
+      <c r="S190" t="s">
+        <v>22</v>
+      </c>
+      <c r="T190" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
@@ -4319,11 +4325,11 @@
       <c r="E191">
         <v>20</v>
       </c>
-      <c r="S191">
-        <v>0</v>
-      </c>
-      <c r="T191">
-        <v>0</v>
+      <c r="S191" t="s">
+        <v>22</v>
+      </c>
+      <c r="T191" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
@@ -4339,11 +4345,11 @@
       <c r="E192">
         <v>45</v>
       </c>
-      <c r="S192">
-        <v>0</v>
-      </c>
-      <c r="T192">
-        <v>0</v>
+      <c r="S192" t="s">
+        <v>22</v>
+      </c>
+      <c r="T192" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
@@ -4359,11 +4365,11 @@
       <c r="E193">
         <v>18</v>
       </c>
-      <c r="S193">
-        <v>0</v>
-      </c>
-      <c r="T193">
-        <v>0</v>
+      <c r="S193" t="s">
+        <v>22</v>
+      </c>
+      <c r="T193" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
@@ -4379,11 +4385,11 @@
       <c r="E194">
         <v>32</v>
       </c>
-      <c r="S194">
-        <v>0</v>
-      </c>
-      <c r="T194">
-        <v>0</v>
+      <c r="S194" t="s">
+        <v>22</v>
+      </c>
+      <c r="T194" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
@@ -4399,11 +4405,11 @@
       <c r="E195">
         <v>14</v>
       </c>
-      <c r="S195">
-        <v>0</v>
-      </c>
-      <c r="T195">
-        <v>0</v>
+      <c r="S195" t="s">
+        <v>22</v>
+      </c>
+      <c r="T195" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
@@ -4419,11 +4425,11 @@
       <c r="E196">
         <v>36</v>
       </c>
-      <c r="S196">
-        <v>0</v>
-      </c>
-      <c r="T196">
-        <v>0</v>
+      <c r="S196" t="s">
+        <v>22</v>
+      </c>
+      <c r="T196" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
@@ -4439,11 +4445,11 @@
       <c r="E197">
         <v>16</v>
       </c>
-      <c r="S197">
-        <v>0</v>
-      </c>
-      <c r="T197">
-        <v>0</v>
+      <c r="S197" t="s">
+        <v>22</v>
+      </c>
+      <c r="T197" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
@@ -4459,11 +4465,11 @@
       <c r="E198">
         <v>36</v>
       </c>
-      <c r="S198">
-        <v>0</v>
-      </c>
-      <c r="T198">
-        <v>0</v>
+      <c r="S198" t="s">
+        <v>22</v>
+      </c>
+      <c r="T198" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
@@ -4479,11 +4485,11 @@
       <c r="E199">
         <v>14</v>
       </c>
-      <c r="S199">
-        <v>0</v>
-      </c>
-      <c r="T199">
-        <v>0</v>
+      <c r="S199" t="s">
+        <v>22</v>
+      </c>
+      <c r="T199" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
@@ -4499,11 +4505,11 @@
       <c r="E200">
         <v>34</v>
       </c>
-      <c r="S200">
-        <v>0</v>
-      </c>
-      <c r="T200">
-        <v>0</v>
+      <c r="S200" t="s">
+        <v>22</v>
+      </c>
+      <c r="T200" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
@@ -4519,11 +4525,11 @@
       <c r="E201">
         <v>15</v>
       </c>
-      <c r="S201">
-        <v>0</v>
-      </c>
-      <c r="T201">
-        <v>0</v>
+      <c r="S201" t="s">
+        <v>22</v>
+      </c>
+      <c r="T201" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
@@ -4539,11 +4545,11 @@
       <c r="E202">
         <v>10</v>
       </c>
-      <c r="S202">
-        <v>0</v>
-      </c>
-      <c r="T202">
-        <v>0</v>
+      <c r="S202" t="s">
+        <v>22</v>
+      </c>
+      <c r="T202" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
@@ -4559,11 +4565,11 @@
       <c r="E203">
         <v>15</v>
       </c>
-      <c r="S203">
-        <v>0</v>
-      </c>
-      <c r="T203">
-        <v>0</v>
+      <c r="S203" t="s">
+        <v>22</v>
+      </c>
+      <c r="T203" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
@@ -4579,11 +4585,11 @@
       <c r="E204">
         <v>30</v>
       </c>
-      <c r="S204">
-        <v>0</v>
-      </c>
-      <c r="T204">
-        <v>0</v>
+      <c r="S204" t="s">
+        <v>22</v>
+      </c>
+      <c r="T204" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
@@ -4599,11 +4605,11 @@
       <c r="D205">
         <v>107</v>
       </c>
-      <c r="S205">
-        <v>0</v>
-      </c>
-      <c r="T205">
-        <v>0</v>
+      <c r="S205" t="s">
+        <v>22</v>
+      </c>
+      <c r="T205" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
@@ -4619,11 +4625,11 @@
       <c r="E206">
         <v>30</v>
       </c>
-      <c r="S206">
-        <v>0</v>
-      </c>
-      <c r="T206">
-        <v>0</v>
+      <c r="S206" t="s">
+        <v>22</v>
+      </c>
+      <c r="T206" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
@@ -4639,11 +4645,11 @@
       <c r="E207">
         <v>30</v>
       </c>
-      <c r="S207">
-        <v>0</v>
-      </c>
-      <c r="T207">
-        <v>0</v>
+      <c r="S207" t="s">
+        <v>22</v>
+      </c>
+      <c r="T207" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
@@ -4662,11 +4668,11 @@
       <c r="F208">
         <v>1</v>
       </c>
-      <c r="S208">
-        <v>0</v>
-      </c>
-      <c r="T208">
-        <v>0</v>
+      <c r="S208" t="s">
+        <v>22</v>
+      </c>
+      <c r="T208" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
@@ -4685,11 +4691,11 @@
       <c r="F209">
         <v>2</v>
       </c>
-      <c r="S209">
-        <v>0</v>
-      </c>
-      <c r="T209">
-        <v>0</v>
+      <c r="S209" t="s">
+        <v>22</v>
+      </c>
+      <c r="T209" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
@@ -4708,11 +4714,11 @@
       <c r="F210">
         <v>1</v>
       </c>
-      <c r="S210">
-        <v>0</v>
-      </c>
-      <c r="T210">
-        <v>0</v>
+      <c r="S210" t="s">
+        <v>22</v>
+      </c>
+      <c r="T210" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
@@ -4728,11 +4734,11 @@
       <c r="E211">
         <v>26</v>
       </c>
-      <c r="S211">
-        <v>0</v>
-      </c>
-      <c r="T211">
-        <v>0</v>
+      <c r="S211" t="s">
+        <v>22</v>
+      </c>
+      <c r="T211" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
@@ -4748,11 +4754,11 @@
       <c r="E212">
         <v>25</v>
       </c>
-      <c r="S212">
-        <v>0</v>
-      </c>
-      <c r="T212">
-        <v>0</v>
+      <c r="S212" t="s">
+        <v>22</v>
+      </c>
+      <c r="T212" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
@@ -4768,11 +4774,11 @@
       <c r="E213">
         <v>30</v>
       </c>
-      <c r="S213">
-        <v>0</v>
-      </c>
-      <c r="T213">
-        <v>0</v>
+      <c r="S213" t="s">
+        <v>22</v>
+      </c>
+      <c r="T213" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
@@ -4788,11 +4794,11 @@
       <c r="J214">
         <v>458</v>
       </c>
-      <c r="S214">
-        <v>0</v>
-      </c>
-      <c r="T214">
-        <v>0</v>
+      <c r="S214" t="s">
+        <v>22</v>
+      </c>
+      <c r="T214" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
@@ -4808,11 +4814,11 @@
       <c r="E215">
         <v>28</v>
       </c>
-      <c r="S215">
-        <v>0</v>
-      </c>
-      <c r="T215">
-        <v>0</v>
+      <c r="S215" t="s">
+        <v>22</v>
+      </c>
+      <c r="T215" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
@@ -4828,11 +4834,11 @@
       <c r="L216">
         <v>220</v>
       </c>
-      <c r="S216">
-        <v>0</v>
-      </c>
-      <c r="T216">
-        <v>0</v>
+      <c r="S216" t="s">
+        <v>22</v>
+      </c>
+      <c r="T216" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
@@ -4848,11 +4854,11 @@
       <c r="D217">
         <v>108</v>
       </c>
-      <c r="S217">
-        <v>0</v>
-      </c>
-      <c r="T217">
-        <v>0</v>
+      <c r="S217" t="s">
+        <v>22</v>
+      </c>
+      <c r="T217" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
@@ -4868,11 +4874,11 @@
       <c r="D218">
         <v>108</v>
       </c>
-      <c r="S218">
-        <v>0</v>
-      </c>
-      <c r="T218">
-        <v>0</v>
+      <c r="S218" t="s">
+        <v>22</v>
+      </c>
+      <c r="T218" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
@@ -4888,11 +4894,11 @@
       <c r="E219">
         <v>38</v>
       </c>
-      <c r="S219">
-        <v>0</v>
-      </c>
-      <c r="T219">
-        <v>0</v>
+      <c r="S219" t="s">
+        <v>22</v>
+      </c>
+      <c r="T219" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
@@ -4908,11 +4914,11 @@
       <c r="E220">
         <v>34</v>
       </c>
-      <c r="S220">
-        <v>0</v>
-      </c>
-      <c r="T220">
-        <v>0</v>
+      <c r="S220" t="s">
+        <v>22</v>
+      </c>
+      <c r="T220" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
@@ -4928,11 +4934,11 @@
       <c r="E221">
         <v>33</v>
       </c>
-      <c r="S221">
-        <v>0</v>
-      </c>
-      <c r="T221">
-        <v>0</v>
+      <c r="S221" t="s">
+        <v>22</v>
+      </c>
+      <c r="T221" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
@@ -4948,11 +4954,11 @@
       <c r="E222">
         <v>24</v>
       </c>
-      <c r="S222">
-        <v>0</v>
-      </c>
-      <c r="T222">
-        <v>0</v>
+      <c r="S222" t="s">
+        <v>22</v>
+      </c>
+      <c r="T222" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
@@ -4968,11 +4974,11 @@
       <c r="E223">
         <v>48</v>
       </c>
-      <c r="S223">
-        <v>0</v>
-      </c>
-      <c r="T223">
-        <v>0</v>
+      <c r="S223" t="s">
+        <v>22</v>
+      </c>
+      <c r="T223" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
@@ -4991,11 +4997,11 @@
       <c r="L224">
         <v>220</v>
       </c>
-      <c r="S224">
-        <v>0</v>
-      </c>
-      <c r="T224">
-        <v>0</v>
+      <c r="S224" t="s">
+        <v>22</v>
+      </c>
+      <c r="T224" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
@@ -5011,11 +5017,11 @@
       <c r="E225">
         <v>34</v>
       </c>
-      <c r="S225">
-        <v>0</v>
-      </c>
-      <c r="T225">
-        <v>0</v>
+      <c r="S225" t="s">
+        <v>22</v>
+      </c>
+      <c r="T225" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
@@ -5031,11 +5037,11 @@
       <c r="E226">
         <v>40</v>
       </c>
-      <c r="S226">
-        <v>0</v>
-      </c>
-      <c r="T226">
-        <v>0</v>
+      <c r="S226" t="s">
+        <v>22</v>
+      </c>
+      <c r="T226" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
@@ -5051,11 +5057,11 @@
       <c r="E227">
         <v>37</v>
       </c>
-      <c r="S227">
-        <v>0</v>
-      </c>
-      <c r="T227">
-        <v>0</v>
+      <c r="S227" t="s">
+        <v>22</v>
+      </c>
+      <c r="T227" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
@@ -5071,11 +5077,11 @@
       <c r="E228">
         <v>31</v>
       </c>
-      <c r="S228">
-        <v>0</v>
-      </c>
-      <c r="T228">
-        <v>0</v>
+      <c r="S228" t="s">
+        <v>22</v>
+      </c>
+      <c r="T228" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
@@ -5091,11 +5097,11 @@
       <c r="E229">
         <v>40</v>
       </c>
-      <c r="S229">
-        <v>0</v>
-      </c>
-      <c r="T229">
-        <v>0</v>
+      <c r="S229" t="s">
+        <v>22</v>
+      </c>
+      <c r="T229" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
@@ -5114,11 +5120,11 @@
       <c r="I230" t="s">
         <v>21</v>
       </c>
-      <c r="S230">
-        <v>0</v>
-      </c>
-      <c r="T230">
-        <v>0</v>
+      <c r="S230" t="s">
+        <v>22</v>
+      </c>
+      <c r="T230" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
@@ -5134,11 +5140,11 @@
       <c r="G231">
         <v>10</v>
       </c>
-      <c r="S231">
-        <v>0</v>
-      </c>
-      <c r="T231">
-        <v>0</v>
+      <c r="S231" t="s">
+        <v>22</v>
+      </c>
+      <c r="T231" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
@@ -5154,11 +5160,11 @@
       <c r="J232">
         <v>205</v>
       </c>
-      <c r="S232">
-        <v>0</v>
-      </c>
-      <c r="T232">
-        <v>0</v>
+      <c r="S232" t="s">
+        <v>22</v>
+      </c>
+      <c r="T232" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
@@ -5174,11 +5180,11 @@
       <c r="H233">
         <v>298</v>
       </c>
-      <c r="S233">
-        <v>0</v>
-      </c>
-      <c r="T233">
-        <v>0</v>
+      <c r="S233" t="s">
+        <v>22</v>
+      </c>
+      <c r="T233" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
@@ -5194,11 +5200,11 @@
       <c r="J234">
         <v>246</v>
       </c>
-      <c r="S234">
-        <v>0</v>
-      </c>
-      <c r="T234">
-        <v>0</v>
+      <c r="S234" t="s">
+        <v>22</v>
+      </c>
+      <c r="T234" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
@@ -5214,11 +5220,11 @@
       <c r="H235">
         <v>299</v>
       </c>
-      <c r="S235">
-        <v>0</v>
-      </c>
-      <c r="T235">
-        <v>0</v>
+      <c r="S235" t="s">
+        <v>22</v>
+      </c>
+      <c r="T235" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
@@ -5234,11 +5240,11 @@
       <c r="H236">
         <v>300</v>
       </c>
-      <c r="S236">
-        <v>0</v>
-      </c>
-      <c r="T236">
-        <v>0</v>
+      <c r="S236" t="s">
+        <v>22</v>
+      </c>
+      <c r="T236" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
@@ -5254,11 +5260,11 @@
       <c r="D237">
         <v>107</v>
       </c>
-      <c r="S237">
-        <v>0</v>
-      </c>
-      <c r="T237">
-        <v>0</v>
+      <c r="S237" t="s">
+        <v>22</v>
+      </c>
+      <c r="T237" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
@@ -5274,11 +5280,11 @@
       <c r="J238">
         <v>246</v>
       </c>
-      <c r="S238">
-        <v>0</v>
-      </c>
-      <c r="T238">
-        <v>0</v>
+      <c r="S238" t="s">
+        <v>22</v>
+      </c>
+      <c r="T238" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
@@ -5294,11 +5300,11 @@
       <c r="G239">
         <v>8</v>
       </c>
-      <c r="S239">
-        <v>0</v>
-      </c>
-      <c r="T239">
-        <v>0</v>
+      <c r="S239" t="s">
+        <v>22</v>
+      </c>
+      <c r="T239" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
@@ -5314,11 +5320,11 @@
       <c r="G240">
         <v>48</v>
       </c>
-      <c r="S240">
-        <v>0</v>
-      </c>
-      <c r="T240">
-        <v>0</v>
+      <c r="S240" t="s">
+        <v>22</v>
+      </c>
+      <c r="T240" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
@@ -5337,11 +5343,11 @@
       <c r="I241" t="s">
         <v>21</v>
       </c>
-      <c r="S241">
-        <v>0</v>
-      </c>
-      <c r="T241">
-        <v>0</v>
+      <c r="S241" t="s">
+        <v>22</v>
+      </c>
+      <c r="T241" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
@@ -5357,11 +5363,11 @@
       <c r="J242">
         <v>246</v>
       </c>
-      <c r="S242">
-        <v>0</v>
-      </c>
-      <c r="T242">
-        <v>0</v>
+      <c r="S242" t="s">
+        <v>22</v>
+      </c>
+      <c r="T242" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
@@ -5377,11 +5383,11 @@
       <c r="H243">
         <v>301</v>
       </c>
-      <c r="S243">
-        <v>0</v>
-      </c>
-      <c r="T243">
-        <v>0</v>
+      <c r="S243" t="s">
+        <v>22</v>
+      </c>
+      <c r="T243" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
@@ -5400,11 +5406,11 @@
       <c r="F244">
         <v>2</v>
       </c>
-      <c r="S244">
-        <v>0</v>
-      </c>
-      <c r="T244">
-        <v>0</v>
+      <c r="S244" t="s">
+        <v>22</v>
+      </c>
+      <c r="T244" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
@@ -5420,11 +5426,11 @@
       <c r="G245">
         <v>10</v>
       </c>
-      <c r="S245">
-        <v>0</v>
-      </c>
-      <c r="T245">
-        <v>0</v>
+      <c r="S245" t="s">
+        <v>22</v>
+      </c>
+      <c r="T245" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
@@ -5440,11 +5446,11 @@
       <c r="H246">
         <v>302</v>
       </c>
-      <c r="S246">
-        <v>0</v>
-      </c>
-      <c r="T246">
-        <v>0</v>
+      <c r="S246" t="s">
+        <v>22</v>
+      </c>
+      <c r="T246" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
@@ -5463,11 +5469,11 @@
       <c r="F247">
         <v>1</v>
       </c>
-      <c r="S247">
-        <v>0</v>
-      </c>
-      <c r="T247">
-        <v>0</v>
+      <c r="S247" t="s">
+        <v>22</v>
+      </c>
+      <c r="T247" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
@@ -5483,11 +5489,11 @@
       <c r="E248">
         <v>17</v>
       </c>
-      <c r="S248">
-        <v>0</v>
-      </c>
-      <c r="T248">
-        <v>0</v>
+      <c r="S248" t="s">
+        <v>22</v>
+      </c>
+      <c r="T248" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
@@ -5503,11 +5509,11 @@
       <c r="E249">
         <v>36</v>
       </c>
-      <c r="S249">
-        <v>0</v>
-      </c>
-      <c r="T249">
-        <v>0</v>
+      <c r="S249" t="s">
+        <v>22</v>
+      </c>
+      <c r="T249" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
@@ -5523,11 +5529,11 @@
       <c r="E250">
         <v>17</v>
       </c>
-      <c r="S250">
-        <v>0</v>
-      </c>
-      <c r="T250">
-        <v>0</v>
+      <c r="S250" t="s">
+        <v>22</v>
+      </c>
+      <c r="T250" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
@@ -5543,11 +5549,11 @@
       <c r="E251">
         <v>36</v>
       </c>
-      <c r="S251">
-        <v>0</v>
-      </c>
-      <c r="T251">
-        <v>0</v>
+      <c r="S251" t="s">
+        <v>22</v>
+      </c>
+      <c r="T251" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
@@ -5563,11 +5569,11 @@
       <c r="E252">
         <v>17</v>
       </c>
-      <c r="S252">
-        <v>0</v>
-      </c>
-      <c r="T252">
-        <v>0</v>
+      <c r="S252" t="s">
+        <v>22</v>
+      </c>
+      <c r="T252" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
@@ -5583,11 +5589,11 @@
       <c r="E253">
         <v>36</v>
       </c>
-      <c r="S253">
-        <v>0</v>
-      </c>
-      <c r="T253">
-        <v>0</v>
+      <c r="S253" t="s">
+        <v>22</v>
+      </c>
+      <c r="T253" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
@@ -5603,11 +5609,11 @@
       <c r="E254">
         <v>20</v>
       </c>
-      <c r="S254">
-        <v>0</v>
-      </c>
-      <c r="T254">
-        <v>0</v>
+      <c r="S254" t="s">
+        <v>22</v>
+      </c>
+      <c r="T254" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
@@ -5623,11 +5629,11 @@
       <c r="E255">
         <v>16</v>
       </c>
-      <c r="S255">
-        <v>0</v>
-      </c>
-      <c r="T255">
-        <v>0</v>
+      <c r="S255" t="s">
+        <v>22</v>
+      </c>
+      <c r="T255" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
@@ -5643,11 +5649,11 @@
       <c r="E256">
         <v>32</v>
       </c>
-      <c r="S256">
-        <v>0</v>
-      </c>
-      <c r="T256">
-        <v>0</v>
+      <c r="S256" t="s">
+        <v>22</v>
+      </c>
+      <c r="T256" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
@@ -5663,11 +5669,11 @@
       <c r="E257">
         <v>20</v>
       </c>
-      <c r="S257">
-        <v>0</v>
-      </c>
-      <c r="T257">
-        <v>0</v>
+      <c r="S257" t="s">
+        <v>22</v>
+      </c>
+      <c r="T257" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
@@ -5683,11 +5689,11 @@
       <c r="D258">
         <v>85</v>
       </c>
-      <c r="S258">
-        <v>0</v>
-      </c>
-      <c r="T258">
-        <v>0</v>
+      <c r="S258" t="s">
+        <v>22</v>
+      </c>
+      <c r="T258" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
@@ -5703,11 +5709,11 @@
       <c r="D259">
         <v>82</v>
       </c>
-      <c r="S259">
-        <v>0</v>
-      </c>
-      <c r="T259">
-        <v>0</v>
+      <c r="S259" t="s">
+        <v>22</v>
+      </c>
+      <c r="T259" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
@@ -5723,11 +5729,11 @@
       <c r="D260">
         <v>84</v>
       </c>
-      <c r="S260">
-        <v>0</v>
-      </c>
-      <c r="T260">
-        <v>0</v>
+      <c r="S260" t="s">
+        <v>22</v>
+      </c>
+      <c r="T260" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
@@ -5743,11 +5749,11 @@
       <c r="D261">
         <v>81</v>
       </c>
-      <c r="S261">
-        <v>0</v>
-      </c>
-      <c r="T261">
-        <v>0</v>
+      <c r="S261" t="s">
+        <v>22</v>
+      </c>
+      <c r="T261" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
@@ -5763,11 +5769,11 @@
       <c r="E262">
         <v>21</v>
       </c>
-      <c r="S262">
-        <v>0</v>
-      </c>
-      <c r="T262">
-        <v>0</v>
+      <c r="S262" t="s">
+        <v>22</v>
+      </c>
+      <c r="T262" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
@@ -5783,11 +5789,11 @@
       <c r="E263">
         <v>32</v>
       </c>
-      <c r="S263">
-        <v>0</v>
-      </c>
-      <c r="T263">
-        <v>0</v>
+      <c r="S263" t="s">
+        <v>22</v>
+      </c>
+      <c r="T263" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
@@ -5803,11 +5809,11 @@
       <c r="E264">
         <v>27</v>
       </c>
-      <c r="S264">
-        <v>0</v>
-      </c>
-      <c r="T264">
-        <v>0</v>
+      <c r="S264" t="s">
+        <v>22</v>
+      </c>
+      <c r="T264" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
@@ -5823,11 +5829,11 @@
       <c r="E265">
         <v>25</v>
       </c>
-      <c r="S265">
-        <v>0</v>
-      </c>
-      <c r="T265">
-        <v>0</v>
+      <c r="S265" t="s">
+        <v>22</v>
+      </c>
+      <c r="T265" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
@@ -5840,11 +5846,11 @@
       <c r="C266">
         <v>2</v>
       </c>
-      <c r="S266">
-        <v>0</v>
-      </c>
-      <c r="T266">
-        <v>0</v>
+      <c r="S266" t="s">
+        <v>22</v>
+      </c>
+      <c r="T266" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
@@ -5860,11 +5866,11 @@
       <c r="L267">
         <v>220</v>
       </c>
-      <c r="S267">
-        <v>0</v>
-      </c>
-      <c r="T267">
-        <v>0</v>
+      <c r="S267" t="s">
+        <v>22</v>
+      </c>
+      <c r="T267" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
@@ -5880,11 +5886,11 @@
       <c r="E268">
         <v>31</v>
       </c>
-      <c r="S268">
-        <v>0</v>
-      </c>
-      <c r="T268">
-        <v>0</v>
+      <c r="S268" t="s">
+        <v>22</v>
+      </c>
+      <c r="T268" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
@@ -5900,11 +5906,11 @@
       <c r="E269">
         <v>25</v>
       </c>
-      <c r="S269">
-        <v>0</v>
-      </c>
-      <c r="T269">
-        <v>0</v>
+      <c r="S269" t="s">
+        <v>22</v>
+      </c>
+      <c r="T269" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
@@ -5917,11 +5923,11 @@
       <c r="C270">
         <v>2</v>
       </c>
-      <c r="S270">
-        <v>0</v>
-      </c>
-      <c r="T270">
-        <v>0</v>
+      <c r="S270" t="s">
+        <v>22</v>
+      </c>
+      <c r="T270" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
@@ -5937,11 +5943,11 @@
       <c r="E271">
         <v>25</v>
       </c>
-      <c r="S271">
-        <v>0</v>
-      </c>
-      <c r="T271">
-        <v>0</v>
+      <c r="S271" t="s">
+        <v>22</v>
+      </c>
+      <c r="T271" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
@@ -5957,11 +5963,11 @@
       <c r="E272">
         <v>36</v>
       </c>
-      <c r="S272">
-        <v>0</v>
-      </c>
-      <c r="T272">
-        <v>0</v>
+      <c r="S272" t="s">
+        <v>22</v>
+      </c>
+      <c r="T272" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.25">
@@ -5977,11 +5983,11 @@
       <c r="E273">
         <v>20</v>
       </c>
-      <c r="S273">
-        <v>0</v>
-      </c>
-      <c r="T273">
-        <v>0</v>
+      <c r="S273" t="s">
+        <v>22</v>
+      </c>
+      <c r="T273" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.25">
@@ -5997,11 +6003,11 @@
       <c r="L274">
         <v>220</v>
       </c>
-      <c r="S274">
-        <v>0</v>
-      </c>
-      <c r="T274">
-        <v>0</v>
+      <c r="S274" t="s">
+        <v>22</v>
+      </c>
+      <c r="T274" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.25">
@@ -6017,11 +6023,11 @@
       <c r="E275">
         <v>22</v>
       </c>
-      <c r="S275">
-        <v>0</v>
-      </c>
-      <c r="T275">
-        <v>0</v>
+      <c r="S275" t="s">
+        <v>22</v>
+      </c>
+      <c r="T275" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.25">
@@ -6037,11 +6043,11 @@
       <c r="E276">
         <v>30</v>
       </c>
-      <c r="S276">
-        <v>0</v>
-      </c>
-      <c r="T276">
-        <v>0</v>
+      <c r="S276" t="s">
+        <v>22</v>
+      </c>
+      <c r="T276" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.25">
@@ -6057,11 +6063,11 @@
       <c r="D277">
         <v>80</v>
       </c>
-      <c r="S277">
-        <v>0</v>
-      </c>
-      <c r="T277">
-        <v>0</v>
+      <c r="S277" t="s">
+        <v>22</v>
+      </c>
+      <c r="T277" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.25">
@@ -6077,11 +6083,11 @@
       <c r="D278">
         <v>80</v>
       </c>
-      <c r="S278">
-        <v>0</v>
-      </c>
-      <c r="T278">
-        <v>0</v>
+      <c r="S278" t="s">
+        <v>22</v>
+      </c>
+      <c r="T278" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.25">
@@ -6097,11 +6103,11 @@
       <c r="E279">
         <v>29</v>
       </c>
-      <c r="S279">
-        <v>0</v>
-      </c>
-      <c r="T279">
-        <v>0</v>
+      <c r="S279" t="s">
+        <v>22</v>
+      </c>
+      <c r="T279" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
@@ -6117,11 +6123,11 @@
       <c r="E280">
         <v>40</v>
       </c>
-      <c r="S280">
-        <v>0</v>
-      </c>
-      <c r="T280">
-        <v>0</v>
+      <c r="S280" t="s">
+        <v>22</v>
+      </c>
+      <c r="T280" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
@@ -6137,11 +6143,11 @@
       <c r="E281">
         <v>35</v>
       </c>
-      <c r="S281">
-        <v>0</v>
-      </c>
-      <c r="T281">
-        <v>0</v>
+      <c r="S281" t="s">
+        <v>22</v>
+      </c>
+      <c r="T281" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.25">
@@ -6157,11 +6163,11 @@
       <c r="E282">
         <v>34</v>
       </c>
-      <c r="S282">
-        <v>0</v>
-      </c>
-      <c r="T282">
-        <v>0</v>
+      <c r="S282" t="s">
+        <v>22</v>
+      </c>
+      <c r="T282" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.25">
@@ -6177,11 +6183,11 @@
       <c r="E283">
         <v>39</v>
       </c>
-      <c r="S283">
-        <v>0</v>
-      </c>
-      <c r="T283">
-        <v>0</v>
+      <c r="S283" t="s">
+        <v>22</v>
+      </c>
+      <c r="T283" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.25">
@@ -6197,11 +6203,11 @@
       <c r="E284">
         <v>34</v>
       </c>
-      <c r="S284">
-        <v>0</v>
-      </c>
-      <c r="T284">
-        <v>0</v>
+      <c r="S284" t="s">
+        <v>22</v>
+      </c>
+      <c r="T284" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.25">
@@ -6217,11 +6223,11 @@
       <c r="E285">
         <v>37</v>
       </c>
-      <c r="S285">
-        <v>0</v>
-      </c>
-      <c r="T285">
-        <v>0</v>
+      <c r="S285" t="s">
+        <v>22</v>
+      </c>
+      <c r="T285" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.25">
@@ -6237,11 +6243,11 @@
       <c r="E286">
         <v>37</v>
       </c>
-      <c r="S286">
-        <v>0</v>
-      </c>
-      <c r="T286">
-        <v>0</v>
+      <c r="S286" t="s">
+        <v>22</v>
+      </c>
+      <c r="T286" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.25">
@@ -6257,11 +6263,11 @@
       <c r="E287">
         <v>36</v>
       </c>
-      <c r="S287">
-        <v>0</v>
-      </c>
-      <c r="T287">
-        <v>0</v>
+      <c r="S287" t="s">
+        <v>22</v>
+      </c>
+      <c r="T287" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.25">
@@ -6277,11 +6283,11 @@
       <c r="E288">
         <v>30</v>
       </c>
-      <c r="S288">
-        <v>0</v>
-      </c>
-      <c r="T288">
-        <v>0</v>
+      <c r="S288" t="s">
+        <v>22</v>
+      </c>
+      <c r="T288" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.25">
@@ -6297,11 +6303,11 @@
       <c r="D289">
         <v>107</v>
       </c>
-      <c r="S289">
-        <v>0</v>
-      </c>
-      <c r="T289">
-        <v>0</v>
+      <c r="S289" t="s">
+        <v>22</v>
+      </c>
+      <c r="T289" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.25">
@@ -6317,11 +6323,11 @@
       <c r="E290">
         <v>32</v>
       </c>
-      <c r="S290">
-        <v>0</v>
-      </c>
-      <c r="T290">
-        <v>0</v>
+      <c r="S290" t="s">
+        <v>22</v>
+      </c>
+      <c r="T290" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
@@ -6337,11 +6343,11 @@
       <c r="E291">
         <v>41</v>
       </c>
-      <c r="S291">
-        <v>0</v>
-      </c>
-      <c r="T291">
-        <v>0</v>
+      <c r="S291" t="s">
+        <v>22</v>
+      </c>
+      <c r="T291" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.25">
@@ -6357,11 +6363,11 @@
       <c r="E292">
         <v>32</v>
       </c>
-      <c r="S292">
-        <v>0</v>
-      </c>
-      <c r="T292">
-        <v>0</v>
+      <c r="S292" t="s">
+        <v>22</v>
+      </c>
+      <c r="T292" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.25">
@@ -6377,11 +6383,11 @@
       <c r="E293">
         <v>41</v>
       </c>
-      <c r="S293">
-        <v>0</v>
-      </c>
-      <c r="T293">
-        <v>0</v>
+      <c r="S293" t="s">
+        <v>22</v>
+      </c>
+      <c r="T293" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.25">
@@ -6397,11 +6403,11 @@
       <c r="E294">
         <v>35</v>
       </c>
-      <c r="S294">
-        <v>0</v>
-      </c>
-      <c r="T294">
-        <v>0</v>
+      <c r="S294" t="s">
+        <v>22</v>
+      </c>
+      <c r="T294" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.25">
@@ -6417,11 +6423,11 @@
       <c r="E295">
         <v>35</v>
       </c>
-      <c r="S295">
-        <v>0</v>
-      </c>
-      <c r="T295">
-        <v>0</v>
+      <c r="S295" t="s">
+        <v>22</v>
+      </c>
+      <c r="T295" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.25">
@@ -6437,11 +6443,11 @@
       <c r="E296">
         <v>47</v>
       </c>
-      <c r="S296">
-        <v>0</v>
-      </c>
-      <c r="T296">
-        <v>0</v>
+      <c r="S296" t="s">
+        <v>22</v>
+      </c>
+      <c r="T296" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.25">
@@ -6457,11 +6463,11 @@
       <c r="E297">
         <v>34</v>
       </c>
-      <c r="S297">
-        <v>0</v>
-      </c>
-      <c r="T297">
-        <v>0</v>
+      <c r="S297" t="s">
+        <v>22</v>
+      </c>
+      <c r="T297" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.25">
@@ -6477,11 +6483,11 @@
       <c r="R298">
         <v>616</v>
       </c>
-      <c r="S298">
-        <v>0</v>
-      </c>
-      <c r="T298">
-        <v>0</v>
+      <c r="S298" t="s">
+        <v>22</v>
+      </c>
+      <c r="T298" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.25">
@@ -6497,11 +6503,11 @@
       <c r="E299">
         <v>39</v>
       </c>
-      <c r="S299">
-        <v>0</v>
-      </c>
-      <c r="T299">
-        <v>0</v>
+      <c r="S299" t="s">
+        <v>22</v>
+      </c>
+      <c r="T299" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.25">
@@ -6517,11 +6523,11 @@
       <c r="E300">
         <v>40</v>
       </c>
-      <c r="S300">
-        <v>0</v>
-      </c>
-      <c r="T300">
-        <v>0</v>
+      <c r="S300" t="s">
+        <v>22</v>
+      </c>
+      <c r="T300" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
@@ -6537,11 +6543,11 @@
       <c r="E301">
         <v>36</v>
       </c>
-      <c r="S301">
-        <v>0</v>
-      </c>
-      <c r="T301">
-        <v>0</v>
+      <c r="S301" t="s">
+        <v>22</v>
+      </c>
+      <c r="T301" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.25">
@@ -6557,11 +6563,11 @@
       <c r="E302">
         <v>40</v>
       </c>
-      <c r="S302">
-        <v>0</v>
-      </c>
-      <c r="T302">
-        <v>0</v>
+      <c r="S302" t="s">
+        <v>22</v>
+      </c>
+      <c r="T302" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.25">
@@ -6577,11 +6583,11 @@
       <c r="E303">
         <v>38</v>
       </c>
-      <c r="S303">
-        <v>0</v>
-      </c>
-      <c r="T303">
-        <v>0</v>
+      <c r="S303" t="s">
+        <v>22</v>
+      </c>
+      <c r="T303" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.25">
@@ -6597,11 +6603,11 @@
       <c r="E304">
         <v>49</v>
       </c>
-      <c r="S304">
-        <v>0</v>
-      </c>
-      <c r="T304">
-        <v>0</v>
+      <c r="S304" t="s">
+        <v>22</v>
+      </c>
+      <c r="T304" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.25">
@@ -6617,11 +6623,11 @@
       <c r="E305">
         <v>39</v>
       </c>
-      <c r="S305">
-        <v>0</v>
-      </c>
-      <c r="T305">
-        <v>0</v>
+      <c r="S305" t="s">
+        <v>22</v>
+      </c>
+      <c r="T305" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.25">
@@ -6637,11 +6643,11 @@
       <c r="D306">
         <v>83</v>
       </c>
-      <c r="S306">
-        <v>0</v>
-      </c>
-      <c r="T306">
-        <v>0</v>
+      <c r="S306" t="s">
+        <v>22</v>
+      </c>
+      <c r="T306" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.25">
@@ -6657,11 +6663,11 @@
       <c r="E307">
         <v>42</v>
       </c>
-      <c r="S307">
-        <v>0</v>
-      </c>
-      <c r="T307">
-        <v>0</v>
+      <c r="S307" t="s">
+        <v>22</v>
+      </c>
+      <c r="T307" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.25">
@@ -6677,11 +6683,11 @@
       <c r="E308">
         <v>41</v>
       </c>
-      <c r="S308">
-        <v>0</v>
-      </c>
-      <c r="T308">
-        <v>0</v>
+      <c r="S308" t="s">
+        <v>22</v>
+      </c>
+      <c r="T308" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.25">
@@ -6697,11 +6703,11 @@
       <c r="D309">
         <v>108</v>
       </c>
-      <c r="S309">
-        <v>0</v>
-      </c>
-      <c r="T309">
-        <v>0</v>
+      <c r="S309" t="s">
+        <v>22</v>
+      </c>
+      <c r="T309" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.25">
@@ -6717,11 +6723,11 @@
       <c r="E310">
         <v>38</v>
       </c>
-      <c r="S310">
-        <v>0</v>
-      </c>
-      <c r="T310">
-        <v>0</v>
+      <c r="S310" t="s">
+        <v>22</v>
+      </c>
+      <c r="T310" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.25">
@@ -6737,11 +6743,11 @@
       <c r="E311">
         <v>48</v>
       </c>
-      <c r="S311">
-        <v>0</v>
-      </c>
-      <c r="T311">
-        <v>0</v>
+      <c r="S311" t="s">
+        <v>22</v>
+      </c>
+      <c r="T311" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.25">
@@ -6757,11 +6763,11 @@
       <c r="E312">
         <v>37</v>
       </c>
-      <c r="S312">
-        <v>0</v>
-      </c>
-      <c r="T312">
-        <v>0</v>
+      <c r="S312" t="s">
+        <v>22</v>
+      </c>
+      <c r="T312" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.25">
@@ -6777,11 +6783,11 @@
       <c r="R313">
         <v>588</v>
       </c>
-      <c r="S313">
-        <v>0</v>
-      </c>
-      <c r="T313">
-        <v>0</v>
+      <c r="S313" t="s">
+        <v>22</v>
+      </c>
+      <c r="T313" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.25">
@@ -6797,11 +6803,11 @@
       <c r="E314">
         <v>50</v>
       </c>
-      <c r="S314">
-        <v>0</v>
-      </c>
-      <c r="T314">
-        <v>0</v>
+      <c r="S314" t="s">
+        <v>22</v>
+      </c>
+      <c r="T314" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.25">
@@ -6817,11 +6823,11 @@
       <c r="E315">
         <v>43</v>
       </c>
-      <c r="S315">
-        <v>0</v>
-      </c>
-      <c r="T315">
-        <v>0</v>
+      <c r="S315" t="s">
+        <v>22</v>
+      </c>
+      <c r="T315" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.25">
@@ -6837,11 +6843,11 @@
       <c r="E316">
         <v>52</v>
       </c>
-      <c r="S316">
-        <v>0</v>
-      </c>
-      <c r="T316">
-        <v>0</v>
+      <c r="S316" t="s">
+        <v>22</v>
+      </c>
+      <c r="T316" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.25">
@@ -6857,11 +6863,11 @@
       <c r="E317">
         <v>54</v>
       </c>
-      <c r="S317">
-        <v>0</v>
-      </c>
-      <c r="T317">
-        <v>0</v>
+      <c r="S317" t="s">
+        <v>22</v>
+      </c>
+      <c r="T317" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.25">
@@ -6877,11 +6883,11 @@
       <c r="E318">
         <v>54</v>
       </c>
-      <c r="S318">
-        <v>0</v>
-      </c>
-      <c r="T318">
-        <v>0</v>
+      <c r="S318" t="s">
+        <v>22</v>
+      </c>
+      <c r="T318" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.25">
@@ -6897,11 +6903,11 @@
       <c r="E319">
         <v>50</v>
       </c>
-      <c r="S319">
-        <v>0</v>
-      </c>
-      <c r="T319">
-        <v>0</v>
+      <c r="S319" t="s">
+        <v>22</v>
+      </c>
+      <c r="T319" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.25">
@@ -6917,11 +6923,11 @@
       <c r="E320">
         <v>64</v>
       </c>
-      <c r="S320">
-        <v>0</v>
-      </c>
-      <c r="T320">
-        <v>0</v>
+      <c r="S320" t="s">
+        <v>22</v>
+      </c>
+      <c r="T320" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.25">
@@ -6937,11 +6943,11 @@
       <c r="E321">
         <v>59</v>
       </c>
-      <c r="S321">
-        <v>0</v>
-      </c>
-      <c r="T321">
-        <v>0</v>
+      <c r="S321" t="s">
+        <v>22</v>
+      </c>
+      <c r="T321" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.25">
@@ -6957,11 +6963,11 @@
       <c r="H322">
         <v>580</v>
       </c>
-      <c r="S322">
-        <v>0</v>
-      </c>
-      <c r="T322">
-        <v>0</v>
+      <c r="S322" t="s">
+        <v>22</v>
+      </c>
+      <c r="T322" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.25">
@@ -6977,11 +6983,11 @@
       <c r="G323">
         <v>379</v>
       </c>
-      <c r="S323">
-        <v>0</v>
-      </c>
-      <c r="T323">
-        <v>0</v>
+      <c r="S323" t="s">
+        <v>22</v>
+      </c>
+      <c r="T323" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.25">
@@ -6997,11 +7003,11 @@
       <c r="G324">
         <v>379</v>
       </c>
-      <c r="S324">
-        <v>0</v>
-      </c>
-      <c r="T324">
-        <v>0</v>
+      <c r="S324" t="s">
+        <v>22</v>
+      </c>
+      <c r="T324" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.25">
@@ -7017,11 +7023,11 @@
       <c r="G325">
         <v>375</v>
       </c>
-      <c r="S325">
-        <v>0</v>
-      </c>
-      <c r="T325">
-        <v>0</v>
+      <c r="S325" t="s">
+        <v>22</v>
+      </c>
+      <c r="T325" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.25">
@@ -7037,11 +7043,11 @@
       <c r="G326">
         <v>380</v>
       </c>
-      <c r="S326">
-        <v>0</v>
-      </c>
-      <c r="T326">
-        <v>0</v>
+      <c r="S326" t="s">
+        <v>22</v>
+      </c>
+      <c r="T326" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.25">
@@ -7057,11 +7063,11 @@
       <c r="H327">
         <v>687</v>
       </c>
-      <c r="S327">
-        <v>0</v>
-      </c>
-      <c r="T327">
-        <v>0</v>
+      <c r="S327" t="s">
+        <v>22</v>
+      </c>
+      <c r="T327" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.25">
@@ -7077,11 +7083,11 @@
       <c r="E328">
         <v>17</v>
       </c>
-      <c r="S328">
-        <v>0</v>
-      </c>
-      <c r="T328">
-        <v>0</v>
+      <c r="S328" t="s">
+        <v>22</v>
+      </c>
+      <c r="T328" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
@@ -7094,11 +7100,11 @@
       <c r="C329">
         <v>2</v>
       </c>
-      <c r="S329">
-        <v>0</v>
-      </c>
-      <c r="T329">
-        <v>0</v>
+      <c r="S329" t="s">
+        <v>22</v>
+      </c>
+      <c r="T329" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.25">
@@ -7114,11 +7120,11 @@
       <c r="E330">
         <v>35</v>
       </c>
-      <c r="S330">
-        <v>0</v>
-      </c>
-      <c r="T330">
-        <v>0</v>
+      <c r="S330" t="s">
+        <v>22</v>
+      </c>
+      <c r="T330" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.25">
@@ -7134,11 +7140,11 @@
       <c r="E331">
         <v>16</v>
       </c>
-      <c r="S331">
-        <v>0</v>
-      </c>
-      <c r="T331">
-        <v>0</v>
+      <c r="S331" t="s">
+        <v>22</v>
+      </c>
+      <c r="T331" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.25">
@@ -7154,11 +7160,11 @@
       <c r="E332">
         <v>30</v>
       </c>
-      <c r="S332">
-        <v>0</v>
-      </c>
-      <c r="T332">
-        <v>1</v>
+      <c r="S332" t="s">
+        <v>22</v>
+      </c>
+      <c r="T332" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.25">
@@ -7174,11 +7180,11 @@
       <c r="E333">
         <v>36</v>
       </c>
-      <c r="S333">
-        <v>0</v>
-      </c>
-      <c r="T333">
-        <v>0</v>
+      <c r="S333" t="s">
+        <v>22</v>
+      </c>
+      <c r="T333" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.25">
@@ -7194,11 +7200,11 @@
       <c r="E334">
         <v>16</v>
       </c>
-      <c r="S334">
-        <v>0</v>
-      </c>
-      <c r="T334">
-        <v>0</v>
+      <c r="S334" t="s">
+        <v>22</v>
+      </c>
+      <c r="T334" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.25">
@@ -7214,11 +7220,11 @@
       <c r="E335">
         <v>37</v>
       </c>
-      <c r="S335">
-        <v>0</v>
-      </c>
-      <c r="T335">
-        <v>0</v>
+      <c r="S335" t="s">
+        <v>22</v>
+      </c>
+      <c r="T335" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.25">
@@ -7234,11 +7240,11 @@
       <c r="E336">
         <v>36</v>
       </c>
-      <c r="S336">
-        <v>0</v>
-      </c>
-      <c r="T336">
-        <v>0</v>
+      <c r="S336" t="s">
+        <v>22</v>
+      </c>
+      <c r="T336" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.25">
@@ -7254,11 +7260,11 @@
       <c r="E337">
         <v>16</v>
       </c>
-      <c r="S337">
-        <v>0</v>
-      </c>
-      <c r="T337">
-        <v>0</v>
+      <c r="S337" t="s">
+        <v>22</v>
+      </c>
+      <c r="T337" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.25">
@@ -7274,11 +7280,11 @@
       <c r="E338">
         <v>36</v>
       </c>
-      <c r="S338">
-        <v>0</v>
-      </c>
-      <c r="T338">
-        <v>0</v>
+      <c r="S338" t="s">
+        <v>22</v>
+      </c>
+      <c r="T338" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.25">
@@ -7294,11 +7300,11 @@
       <c r="E339">
         <v>35</v>
       </c>
-      <c r="S339">
-        <v>0</v>
-      </c>
-      <c r="T339">
-        <v>0</v>
+      <c r="S339" t="s">
+        <v>22</v>
+      </c>
+      <c r="T339" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.25">
@@ -7314,11 +7320,11 @@
       <c r="E340">
         <v>40</v>
       </c>
-      <c r="S340">
-        <v>0</v>
-      </c>
-      <c r="T340">
-        <v>0</v>
+      <c r="S340" t="s">
+        <v>22</v>
+      </c>
+      <c r="T340" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.25">
@@ -7334,11 +7340,11 @@
       <c r="E341">
         <v>12</v>
       </c>
-      <c r="S341">
-        <v>0</v>
-      </c>
-      <c r="T341">
-        <v>0</v>
+      <c r="S341" t="s">
+        <v>22</v>
+      </c>
+      <c r="T341" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.25">
@@ -7354,11 +7360,11 @@
       <c r="E342">
         <v>9</v>
       </c>
-      <c r="S342">
-        <v>0</v>
-      </c>
-      <c r="T342">
-        <v>0</v>
+      <c r="S342" t="s">
+        <v>22</v>
+      </c>
+      <c r="T342" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.25">
@@ -7374,11 +7380,11 @@
       <c r="E343">
         <v>39</v>
       </c>
-      <c r="S343">
-        <v>0</v>
-      </c>
-      <c r="T343">
-        <v>0</v>
+      <c r="S343" t="s">
+        <v>22</v>
+      </c>
+      <c r="T343" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.25">
@@ -7391,11 +7397,11 @@
       <c r="C344">
         <v>2</v>
       </c>
-      <c r="S344">
-        <v>0</v>
-      </c>
-      <c r="T344">
-        <v>0</v>
+      <c r="S344" t="s">
+        <v>22</v>
+      </c>
+      <c r="T344" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.25">
@@ -7411,11 +7417,11 @@
       <c r="E345">
         <v>20</v>
       </c>
-      <c r="S345">
-        <v>0</v>
-      </c>
-      <c r="T345">
-        <v>0</v>
+      <c r="S345" t="s">
+        <v>22</v>
+      </c>
+      <c r="T345" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.25">
@@ -7431,11 +7437,11 @@
       <c r="E346">
         <v>19</v>
       </c>
-      <c r="S346">
-        <v>0</v>
-      </c>
-      <c r="T346">
-        <v>0</v>
+      <c r="S346" t="s">
+        <v>22</v>
+      </c>
+      <c r="T346" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.25">
@@ -7451,11 +7457,11 @@
       <c r="D347">
         <v>107</v>
       </c>
-      <c r="S347">
-        <v>0</v>
-      </c>
-      <c r="T347">
-        <v>0</v>
+      <c r="S347" t="s">
+        <v>22</v>
+      </c>
+      <c r="T347" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.25">
@@ -7471,11 +7477,11 @@
       <c r="D348">
         <v>108</v>
       </c>
-      <c r="S348">
-        <v>0</v>
-      </c>
-      <c r="T348">
-        <v>0</v>
+      <c r="S348" t="s">
+        <v>22</v>
+      </c>
+      <c r="T348" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.25">
@@ -7494,11 +7500,11 @@
       <c r="Q349">
         <v>17</v>
       </c>
-      <c r="S349">
-        <v>0</v>
-      </c>
-      <c r="T349">
-        <v>0</v>
+      <c r="S349" t="s">
+        <v>22</v>
+      </c>
+      <c r="T349" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.25">
@@ -7514,11 +7520,11 @@
       <c r="H350">
         <v>686</v>
       </c>
-      <c r="S350">
-        <v>0</v>
-      </c>
-      <c r="T350">
-        <v>0</v>
+      <c r="S350" t="s">
+        <v>22</v>
+      </c>
+      <c r="T350" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.25">
@@ -7534,11 +7540,11 @@
       <c r="E351">
         <v>48</v>
       </c>
-      <c r="S351">
-        <v>0</v>
-      </c>
-      <c r="T351">
-        <v>0</v>
+      <c r="S351" t="s">
+        <v>22</v>
+      </c>
+      <c r="T351" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.25">
@@ -7557,11 +7563,11 @@
       <c r="I352" t="s">
         <v>20</v>
       </c>
-      <c r="S352">
-        <v>0</v>
-      </c>
-      <c r="T352">
-        <v>0</v>
+      <c r="S352" t="s">
+        <v>22</v>
+      </c>
+      <c r="T352" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.25">
@@ -7580,11 +7586,11 @@
       <c r="I353" t="s">
         <v>21</v>
       </c>
-      <c r="S353">
-        <v>0</v>
-      </c>
-      <c r="T353">
-        <v>0</v>
+      <c r="S353" t="s">
+        <v>22</v>
+      </c>
+      <c r="T353" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.25">
@@ -7600,11 +7606,11 @@
       <c r="E354">
         <v>37</v>
       </c>
-      <c r="S354">
-        <v>0</v>
-      </c>
-      <c r="T354">
-        <v>0</v>
+      <c r="S354" t="s">
+        <v>22</v>
+      </c>
+      <c r="T354" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.25">
@@ -7620,11 +7626,11 @@
       <c r="D355">
         <v>80</v>
       </c>
-      <c r="S355">
-        <v>0</v>
-      </c>
-      <c r="T355">
-        <v>0</v>
+      <c r="S355" t="s">
+        <v>22</v>
+      </c>
+      <c r="T355" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.25">
@@ -7640,11 +7646,11 @@
       <c r="E356">
         <v>35</v>
       </c>
-      <c r="S356">
-        <v>0</v>
-      </c>
-      <c r="T356">
-        <v>0</v>
+      <c r="S356" t="s">
+        <v>22</v>
+      </c>
+      <c r="T356" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.25">
@@ -7660,11 +7666,11 @@
       <c r="E357">
         <v>32</v>
       </c>
-      <c r="S357">
-        <v>0</v>
-      </c>
-      <c r="T357">
-        <v>0</v>
+      <c r="S357" t="s">
+        <v>22</v>
+      </c>
+      <c r="T357" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.25">
@@ -7680,11 +7686,11 @@
       <c r="E358">
         <v>50</v>
       </c>
-      <c r="S358">
-        <v>1</v>
-      </c>
-      <c r="T358">
-        <v>0</v>
+      <c r="S358" t="s">
+        <v>23</v>
+      </c>
+      <c r="T358" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.25">
@@ -7700,11 +7706,11 @@
       <c r="E359">
         <v>48</v>
       </c>
-      <c r="S359">
-        <v>0</v>
-      </c>
-      <c r="T359">
-        <v>0</v>
+      <c r="S359" t="s">
+        <v>22</v>
+      </c>
+      <c r="T359" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.25">
@@ -7720,11 +7726,11 @@
       <c r="E360">
         <v>25</v>
       </c>
-      <c r="S360">
-        <v>0</v>
-      </c>
-      <c r="T360">
-        <v>0</v>
+      <c r="S360" t="s">
+        <v>22</v>
+      </c>
+      <c r="T360" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.25">
@@ -7743,11 +7749,11 @@
       <c r="N361">
         <v>2</v>
       </c>
-      <c r="S361">
-        <v>0</v>
-      </c>
-      <c r="T361">
-        <v>0</v>
+      <c r="S361" t="s">
+        <v>22</v>
+      </c>
+      <c r="T361" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.25">
@@ -7763,11 +7769,11 @@
       <c r="G362">
         <v>629</v>
       </c>
-      <c r="S362">
-        <v>0</v>
-      </c>
-      <c r="T362">
-        <v>0</v>
+      <c r="S362" t="s">
+        <v>22</v>
+      </c>
+      <c r="T362" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.25">
@@ -7783,11 +7789,11 @@
       <c r="G363">
         <v>650</v>
       </c>
-      <c r="S363">
-        <v>0</v>
-      </c>
-      <c r="T363">
-        <v>0</v>
+      <c r="S363" t="s">
+        <v>22</v>
+      </c>
+      <c r="T363" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.25">
@@ -7803,11 +7809,11 @@
       <c r="G364">
         <v>640</v>
       </c>
-      <c r="S364">
-        <v>0</v>
-      </c>
-      <c r="T364">
-        <v>0</v>
+      <c r="S364" t="s">
+        <v>22</v>
+      </c>
+      <c r="T364" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.25">
@@ -7823,11 +7829,11 @@
       <c r="G365">
         <v>629</v>
       </c>
-      <c r="S365">
-        <v>0</v>
-      </c>
-      <c r="T365">
-        <v>0</v>
+      <c r="S365" t="s">
+        <v>22</v>
+      </c>
+      <c r="T365" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.25">
@@ -7840,11 +7846,11 @@
       <c r="C366">
         <v>1</v>
       </c>
-      <c r="S366">
-        <v>0</v>
-      </c>
-      <c r="T366">
-        <v>0</v>
+      <c r="S366" t="s">
+        <v>22</v>
+      </c>
+      <c r="T366" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.25">
@@ -7863,11 +7869,11 @@
       <c r="I367" t="s">
         <v>21</v>
       </c>
-      <c r="S367">
-        <v>0</v>
-      </c>
-      <c r="T367">
-        <v>0</v>
+      <c r="S367" t="s">
+        <v>22</v>
+      </c>
+      <c r="T367" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.25">
@@ -7880,11 +7886,11 @@
       <c r="C368">
         <v>1</v>
       </c>
-      <c r="S368">
-        <v>0</v>
-      </c>
-      <c r="T368">
-        <v>0</v>
+      <c r="S368" t="s">
+        <v>22</v>
+      </c>
+      <c r="T368" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:20" x14ac:dyDescent="0.25">
@@ -7897,11 +7903,11 @@
       <c r="C369">
         <v>1</v>
       </c>
-      <c r="S369">
-        <v>0</v>
-      </c>
-      <c r="T369">
-        <v>0</v>
+      <c r="S369" t="s">
+        <v>22</v>
+      </c>
+      <c r="T369" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.25">
@@ -7914,11 +7920,11 @@
       <c r="C370">
         <v>1</v>
       </c>
-      <c r="S370">
-        <v>0</v>
-      </c>
-      <c r="T370">
-        <v>0</v>
+      <c r="S370" t="s">
+        <v>22</v>
+      </c>
+      <c r="T370" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.25">
@@ -7934,11 +7940,11 @@
       <c r="M371">
         <v>170</v>
       </c>
-      <c r="S371">
-        <v>0</v>
-      </c>
-      <c r="T371">
-        <v>0</v>
+      <c r="S371" t="s">
+        <v>22</v>
+      </c>
+      <c r="T371" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.25">
@@ -7957,11 +7963,11 @@
       <c r="F372">
         <v>2</v>
       </c>
-      <c r="S372">
-        <v>0</v>
-      </c>
-      <c r="T372">
-        <v>0</v>
+      <c r="S372" t="s">
+        <v>22</v>
+      </c>
+      <c r="T372" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.25">
@@ -7977,11 +7983,11 @@
       <c r="E373">
         <v>17</v>
       </c>
-      <c r="S373">
-        <v>0</v>
-      </c>
-      <c r="T373">
-        <v>0</v>
+      <c r="S373" t="s">
+        <v>22</v>
+      </c>
+      <c r="T373" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.25">
@@ -7997,11 +8003,11 @@
       <c r="E374">
         <v>34</v>
       </c>
-      <c r="S374">
-        <v>0</v>
-      </c>
-      <c r="T374">
-        <v>0</v>
+      <c r="S374" t="s">
+        <v>22</v>
+      </c>
+      <c r="T374" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.25">
@@ -8017,11 +8023,11 @@
       <c r="E375">
         <v>17</v>
       </c>
-      <c r="S375">
-        <v>0</v>
-      </c>
-      <c r="T375">
-        <v>0</v>
+      <c r="S375" t="s">
+        <v>22</v>
+      </c>
+      <c r="T375" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="376" spans="1:20" x14ac:dyDescent="0.25">
@@ -8037,11 +8043,11 @@
       <c r="E376">
         <v>34</v>
       </c>
-      <c r="S376">
-        <v>0</v>
-      </c>
-      <c r="T376">
-        <v>0</v>
+      <c r="S376" t="s">
+        <v>22</v>
+      </c>
+      <c r="T376" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="377" spans="1:20" x14ac:dyDescent="0.25">
@@ -8057,11 +8063,11 @@
       <c r="E377">
         <v>17</v>
       </c>
-      <c r="S377">
-        <v>0</v>
-      </c>
-      <c r="T377">
-        <v>0</v>
+      <c r="S377" t="s">
+        <v>22</v>
+      </c>
+      <c r="T377" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="378" spans="1:20" x14ac:dyDescent="0.25">
@@ -8077,11 +8083,11 @@
       <c r="E378">
         <v>34</v>
       </c>
-      <c r="S378">
-        <v>0</v>
-      </c>
-      <c r="T378">
-        <v>0</v>
+      <c r="S378" t="s">
+        <v>22</v>
+      </c>
+      <c r="T378" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="379" spans="1:20" x14ac:dyDescent="0.25">
@@ -8097,11 +8103,11 @@
       <c r="E379">
         <v>14</v>
       </c>
-      <c r="S379">
-        <v>0</v>
-      </c>
-      <c r="T379">
-        <v>0</v>
+      <c r="S379" t="s">
+        <v>22</v>
+      </c>
+      <c r="T379" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="380" spans="1:20" x14ac:dyDescent="0.25">
@@ -8117,11 +8123,11 @@
       <c r="E380">
         <v>28</v>
       </c>
-      <c r="S380">
-        <v>0</v>
-      </c>
-      <c r="T380">
-        <v>0</v>
+      <c r="S380" t="s">
+        <v>22</v>
+      </c>
+      <c r="T380" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="381" spans="1:20" x14ac:dyDescent="0.25">
@@ -8140,11 +8146,11 @@
       <c r="I381" t="s">
         <v>20</v>
       </c>
-      <c r="S381">
-        <v>0</v>
-      </c>
-      <c r="T381">
-        <v>0</v>
+      <c r="S381" t="s">
+        <v>22</v>
+      </c>
+      <c r="T381" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="382" spans="1:20" x14ac:dyDescent="0.25">
@@ -8160,11 +8166,11 @@
       <c r="E382">
         <v>20</v>
       </c>
-      <c r="S382">
-        <v>0</v>
-      </c>
-      <c r="T382">
-        <v>0</v>
+      <c r="S382" t="s">
+        <v>22</v>
+      </c>
+      <c r="T382" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="383" spans="1:20" x14ac:dyDescent="0.25">
@@ -8177,11 +8183,11 @@
       <c r="C383">
         <v>1</v>
       </c>
-      <c r="S383">
-        <v>0</v>
-      </c>
-      <c r="T383">
-        <v>0</v>
+      <c r="S383" t="s">
+        <v>22</v>
+      </c>
+      <c r="T383" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="384" spans="1:20" x14ac:dyDescent="0.25">
@@ -8194,11 +8200,11 @@
       <c r="C384">
         <v>1</v>
       </c>
-      <c r="S384">
-        <v>0</v>
-      </c>
-      <c r="T384">
-        <v>0</v>
+      <c r="S384" t="s">
+        <v>22</v>
+      </c>
+      <c r="T384" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="385" spans="1:20" x14ac:dyDescent="0.25">
@@ -8214,11 +8220,11 @@
       <c r="E385">
         <v>25</v>
       </c>
-      <c r="S385">
-        <v>0</v>
-      </c>
-      <c r="T385">
-        <v>0</v>
+      <c r="S385" t="s">
+        <v>22</v>
+      </c>
+      <c r="T385" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="386" spans="1:20" x14ac:dyDescent="0.25">
@@ -8237,11 +8243,11 @@
       <c r="I386" t="s">
         <v>20</v>
       </c>
-      <c r="S386">
-        <v>0</v>
-      </c>
-      <c r="T386">
-        <v>0</v>
+      <c r="S386" t="s">
+        <v>22</v>
+      </c>
+      <c r="T386" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="387" spans="1:20" x14ac:dyDescent="0.25">
@@ -8260,11 +8266,11 @@
       <c r="I387" t="s">
         <v>21</v>
       </c>
-      <c r="S387">
-        <v>0</v>
-      </c>
-      <c r="T387">
-        <v>0</v>
+      <c r="S387" t="s">
+        <v>22</v>
+      </c>
+      <c r="T387" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="388" spans="1:20" x14ac:dyDescent="0.25">
@@ -8280,11 +8286,11 @@
       <c r="E388">
         <v>38</v>
       </c>
-      <c r="S388">
-        <v>0</v>
-      </c>
-      <c r="T388">
-        <v>0</v>
+      <c r="S388" t="s">
+        <v>22</v>
+      </c>
+      <c r="T388" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="389" spans="1:20" x14ac:dyDescent="0.25">
@@ -8300,11 +8306,11 @@
       <c r="E389">
         <v>30</v>
       </c>
-      <c r="S389">
-        <v>0</v>
-      </c>
-      <c r="T389">
-        <v>0</v>
+      <c r="S389" t="s">
+        <v>22</v>
+      </c>
+      <c r="T389" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="390" spans="1:20" x14ac:dyDescent="0.25">
@@ -8320,11 +8326,11 @@
       <c r="E390">
         <v>22</v>
       </c>
-      <c r="S390">
-        <v>0</v>
-      </c>
-      <c r="T390">
-        <v>0</v>
+      <c r="S390" t="s">
+        <v>22</v>
+      </c>
+      <c r="T390" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="391" spans="1:20" x14ac:dyDescent="0.25">
@@ -8343,11 +8349,11 @@
       <c r="I391" t="s">
         <v>20</v>
       </c>
-      <c r="S391">
-        <v>0</v>
-      </c>
-      <c r="T391">
-        <v>0</v>
+      <c r="S391" t="s">
+        <v>22</v>
+      </c>
+      <c r="T391" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="392" spans="1:20" x14ac:dyDescent="0.25">
@@ -8363,11 +8369,11 @@
       <c r="E392">
         <v>24</v>
       </c>
-      <c r="S392">
-        <v>0</v>
-      </c>
-      <c r="T392">
-        <v>0</v>
+      <c r="S392" t="s">
+        <v>22</v>
+      </c>
+      <c r="T392" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="1:20" x14ac:dyDescent="0.25">
@@ -8386,11 +8392,11 @@
       <c r="F393">
         <v>1</v>
       </c>
-      <c r="S393">
-        <v>0</v>
-      </c>
-      <c r="T393">
-        <v>0</v>
+      <c r="S393" t="s">
+        <v>22</v>
+      </c>
+      <c r="T393" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="394" spans="1:20" x14ac:dyDescent="0.25">
@@ -8406,11 +8412,11 @@
       <c r="E394">
         <v>27</v>
       </c>
-      <c r="S394">
-        <v>0</v>
-      </c>
-      <c r="T394">
-        <v>0</v>
+      <c r="S394" t="s">
+        <v>22</v>
+      </c>
+      <c r="T394" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.25">
@@ -8426,11 +8432,11 @@
       <c r="E395">
         <v>18</v>
       </c>
-      <c r="S395">
-        <v>0</v>
-      </c>
-      <c r="T395">
-        <v>0</v>
+      <c r="S395" t="s">
+        <v>22</v>
+      </c>
+      <c r="T395" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.25">
@@ -8446,11 +8452,11 @@
       <c r="J396">
         <v>23</v>
       </c>
-      <c r="S396">
-        <v>0</v>
-      </c>
-      <c r="T396">
-        <v>0</v>
+      <c r="S396" t="s">
+        <v>22</v>
+      </c>
+      <c r="T396" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="397" spans="1:20" x14ac:dyDescent="0.25">
@@ -8466,11 +8472,11 @@
       <c r="E397">
         <v>30</v>
       </c>
-      <c r="S397">
-        <v>0</v>
-      </c>
-      <c r="T397">
-        <v>0</v>
+      <c r="S397" t="s">
+        <v>22</v>
+      </c>
+      <c r="T397" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.25">
@@ -8486,11 +8492,11 @@
       <c r="E398">
         <v>42</v>
       </c>
-      <c r="S398">
-        <v>0</v>
-      </c>
-      <c r="T398">
-        <v>0</v>
+      <c r="S398" t="s">
+        <v>22</v>
+      </c>
+      <c r="T398" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.25">
@@ -8506,11 +8512,11 @@
       <c r="L399">
         <v>220</v>
       </c>
-      <c r="S399">
-        <v>0</v>
-      </c>
-      <c r="T399">
-        <v>0</v>
+      <c r="S399" t="s">
+        <v>22</v>
+      </c>
+      <c r="T399" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.25">
@@ -8526,11 +8532,11 @@
       <c r="E400">
         <v>35</v>
       </c>
-      <c r="S400">
-        <v>0</v>
-      </c>
-      <c r="T400">
-        <v>0</v>
+      <c r="S400" t="s">
+        <v>22</v>
+      </c>
+      <c r="T400" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="401" spans="1:20" x14ac:dyDescent="0.25">
@@ -8546,11 +8552,11 @@
       <c r="E401">
         <v>45</v>
       </c>
-      <c r="S401">
-        <v>0</v>
-      </c>
-      <c r="T401">
-        <v>0</v>
+      <c r="S401" t="s">
+        <v>22</v>
+      </c>
+      <c r="T401" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="402" spans="1:20" x14ac:dyDescent="0.25">
@@ -8566,11 +8572,11 @@
       <c r="E402">
         <v>43</v>
       </c>
-      <c r="S402">
-        <v>0</v>
-      </c>
-      <c r="T402">
-        <v>0</v>
+      <c r="S402" t="s">
+        <v>22</v>
+      </c>
+      <c r="T402" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="403" spans="1:20" x14ac:dyDescent="0.25">
@@ -8586,11 +8592,11 @@
       <c r="E403">
         <v>53</v>
       </c>
-      <c r="S403">
-        <v>0</v>
-      </c>
-      <c r="T403">
-        <v>0</v>
+      <c r="S403" t="s">
+        <v>22</v>
+      </c>
+      <c r="T403" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="404" spans="1:20" x14ac:dyDescent="0.25">
@@ -8606,11 +8612,11 @@
       <c r="E404">
         <v>53</v>
       </c>
-      <c r="S404">
-        <v>0</v>
-      </c>
-      <c r="T404">
-        <v>0</v>
+      <c r="S404" t="s">
+        <v>22</v>
+      </c>
+      <c r="T404" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
